--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>218430.826498195</v>
+        <v>219479.9650573947</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18918821.64322884</v>
+        <v>19087887.38355838</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9446554.900257196</v>
+        <v>9612256.232354168</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5508041.968543458</v>
+        <v>5428295.101861428</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>340.1380081796693</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>375.0987584699129</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,19 +822,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>139.4851730221157</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>164.540418312084</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -896,10 +898,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>15.40312238724408</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>125.6566574884768</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>56.34942380724652</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1111,13 +1113,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3318905835881492</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>130.3571155740704</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>133.7343416820883</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1306,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>34.79484432979901</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>65.76953573495688</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>119.5893676834711</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>137.0099033214099</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>191.0496137212965</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>199.3892443385093</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>9.977447387534122</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1616,7 +1618,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>125.9082691827428</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>88.66266823451896</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>65.76953573495688</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>106.3192265349075</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>76.27687060941918</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2005,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>86.25014187408861</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>139.4851730221162</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,16 +2083,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>92.38090300811169</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>94.13968570244978</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>73.50111029899465</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>207.085981278626</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -2330,13 +2332,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>58.67748875058466</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>211.0416009341655</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>75.30362264056431</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>154.8833258811976</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>94.13968570244987</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2612,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>86.31361320310528</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2722,7 +2724,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>56.72129479108445</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>95.12791126066239</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>85.48859337567404</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>106.3397188323749</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -2998,19 +3000,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>6.464056402160108</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>167.2258230149176</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -3038,16 +3040,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>78.26653139842092</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>123.0673923170403</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3253,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>58.31517967031871</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>244.2852625275964</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
         <v>255.7713603095518</v>
@@ -3329,10 +3331,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>208.0459955848474</v>
       </c>
     </row>
     <row r="36">
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.378995526348825</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>336.6719809130029</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>104.7223743992564</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,13 +3562,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>69.90564648641778</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3718,16 +3720,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>283.3016020625674</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>58.67748875058447</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3898,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>105.2349389792878</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3916,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>19.53872709080452</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3977,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>141.0108663506464</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>104.7223743992564</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4150,7 +4152,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>34.79484432979901</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>117.5628180826244</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1229.755298763999</v>
+        <v>713.6680058048858</v>
       </c>
       <c r="C2" t="n">
-        <v>886.181553127969</v>
+        <v>713.6680058048858</v>
       </c>
       <c r="D2" t="n">
-        <v>462.8889323129692</v>
+        <v>713.6680058048858</v>
       </c>
       <c r="E2" t="n">
-        <v>36.91199246082674</v>
+        <v>713.6680058048858</v>
       </c>
       <c r="F2" t="n">
-        <v>36.91199246082674</v>
+        <v>713.6680058048858</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>475.9423301316919</v>
       </c>
       <c r="L2" t="n">
-        <v>358.3859952497895</v>
+        <v>475.9423301316919</v>
       </c>
       <c r="M2" t="n">
-        <v>815.1719019525203</v>
+        <v>475.9423301316919</v>
       </c>
       <c r="N2" t="n">
-        <v>1271.957808655251</v>
+        <v>475.9423301316919</v>
       </c>
       <c r="O2" t="n">
-        <v>1271.957808655251</v>
+        <v>932.7282368344227</v>
       </c>
       <c r="P2" t="n">
-        <v>1271.957808655251</v>
+        <v>1389.514143537153</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U2" t="n">
-        <v>1587.244713637749</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="V2" t="n">
-        <v>1229.755298763999</v>
+        <v>1125.388004637138</v>
       </c>
       <c r="W2" t="n">
-        <v>1229.755298763999</v>
+        <v>1125.388004637138</v>
       </c>
       <c r="X2" t="n">
-        <v>1229.755298763999</v>
+        <v>713.6680058048858</v>
       </c>
       <c r="Y2" t="n">
-        <v>1229.755298763999</v>
+        <v>713.6680058048858</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>604.0354834922819</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097866</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G3" t="n">
         <v>90.28808569851708</v>
@@ -4410,34 +4412,34 @@
         <v>308.6094817404178</v>
       </c>
       <c r="K3" t="n">
-        <v>308.6094817404178</v>
+        <v>765.3953884431485</v>
       </c>
       <c r="L3" t="n">
-        <v>475.2419029331441</v>
+        <v>765.3953884431485</v>
       </c>
       <c r="M3" t="n">
-        <v>932.027809635875</v>
+        <v>765.3953884431485</v>
       </c>
       <c r="N3" t="n">
-        <v>932.027809635875</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S3" t="n">
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4446,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590522</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123446</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1020.32454672534</v>
+        <v>349.778669745664</v>
       </c>
       <c r="C4" t="n">
-        <v>848.3519836042556</v>
+        <v>177.80610662458</v>
       </c>
       <c r="D4" t="n">
-        <v>685.0352107310263</v>
+        <v>177.80610662458</v>
       </c>
       <c r="E4" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F4" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G4" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K4" t="n">
-        <v>94.40332068498475</v>
+        <v>76.2056552989647</v>
       </c>
       <c r="L4" t="n">
-        <v>449.0926419794055</v>
+        <v>430.8949765933855</v>
       </c>
       <c r="M4" t="n">
-        <v>840.2784369496563</v>
+        <v>822.0807715636363</v>
       </c>
       <c r="N4" t="n">
-        <v>1217.769947825692</v>
+        <v>1199.572282439672</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119435</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="T4" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="U4" t="n">
-        <v>1845.599623041337</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="V4" t="n">
-        <v>1845.599623041337</v>
+        <v>1283.70370714967</v>
       </c>
       <c r="W4" t="n">
-        <v>1679.397180301858</v>
+        <v>1008.851303322183</v>
       </c>
       <c r="X4" t="n">
-        <v>1436.833283747663</v>
+        <v>766.2874067679876</v>
       </c>
       <c r="Y4" t="n">
-        <v>1210.490515437405</v>
+        <v>539.9446384577296</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>350.3390804688567</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="C5" t="n">
-        <v>334.7803709867919</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D5" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E5" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F5" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K5" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L5" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M5" t="n">
-        <v>950.4838058662885</v>
+        <v>493.6978991635575</v>
       </c>
       <c r="N5" t="n">
-        <v>1388.813716338606</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O5" t="n">
-        <v>1388.813716338606</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P5" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="U5" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="V5" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="W5" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="X5" t="n">
-        <v>1175.524714805496</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y5" t="n">
-        <v>770.1874447603867</v>
+        <v>1306.953707554057</v>
       </c>
     </row>
     <row r="6">
@@ -4626,46 +4628,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F6" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J6" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K6" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L6" t="n">
-        <v>950.4838058662885</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M6" t="n">
-        <v>1407.269712569019</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N6" t="n">
-        <v>1407.269712569019</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O6" t="n">
-        <v>1407.269712569019</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.580312956633</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>804.324283372134</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="C7" t="n">
-        <v>804.324283372134</v>
+        <v>423.4043449461335</v>
       </c>
       <c r="D7" t="n">
-        <v>641.0075104989047</v>
+        <v>260.0875720729042</v>
       </c>
       <c r="E7" t="n">
-        <v>474.7993046517582</v>
+        <v>260.0875720729042</v>
       </c>
       <c r="F7" t="n">
-        <v>302.9375304263186</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G7" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>822.0807715636367</v>
+        <v>695.0806413228745</v>
       </c>
       <c r="N7" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800574</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560471</v>
       </c>
       <c r="T7" t="n">
-        <v>1602.260275267237</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U7" t="n">
-        <v>1322.075826767541</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V7" t="n">
-        <v>1321.740583753816</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="W7" t="n">
-        <v>1046.888179926329</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="X7" t="n">
-        <v>804.324283372134</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="Y7" t="n">
-        <v>804.324283372134</v>
+        <v>595.3769080672175</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>885.3287950864262</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="C8" t="n">
-        <v>885.3287950864262</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="D8" t="n">
-        <v>462.0361742714265</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="E8" t="n">
-        <v>462.0361742714265</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="F8" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J8" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L8" t="n">
         <v>856.3013579804531</v>
@@ -4814,40 +4816,40 @@
         <v>1313.087264683184</v>
       </c>
       <c r="N8" t="n">
-        <v>1728.043288159434</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537153</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537153</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1493.000197970747</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1135.510783096996</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="X8" t="n">
-        <v>1710.514429423066</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="Y8" t="n">
-        <v>1305.177159377956</v>
+        <v>739.1194333973433</v>
       </c>
     </row>
     <row r="9">
@@ -4863,43 +4865,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F9" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K9" t="n">
-        <v>36.91199246082674</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="L9" t="n">
-        <v>493.6978991635576</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="M9" t="n">
-        <v>950.4838058662885</v>
+        <v>765.3953884431486</v>
       </c>
       <c r="N9" t="n">
-        <v>950.4838058662885</v>
+        <v>1222.181295145879</v>
       </c>
       <c r="O9" t="n">
-        <v>1407.269712569019</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q9" t="n">
         <v>1845.599623041337</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>911.6745856373313</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C10" t="n">
-        <v>739.7020225162473</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D10" t="n">
-        <v>576.385249643018</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E10" t="n">
-        <v>410.1770437958716</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F10" t="n">
-        <v>238.315269570432</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G10" t="n">
-        <v>72.05829986466412</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K10" t="n">
-        <v>76.20565529896515</v>
+        <v>76.2056552989647</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>430.8949765933855</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>822.0807715636363</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1199.572282439672</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1555.000411119435</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="V10" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="W10" t="n">
-        <v>1570.74721921385</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X10" t="n">
-        <v>1328.183322659655</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y10" t="n">
-        <v>1101.840554349397</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1313.082283114669</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="C11" t="n">
-        <v>886.181553127969</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="D11" t="n">
-        <v>462.8889323129692</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="E11" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="F11" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J11" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K11" t="n">
-        <v>815.1719019525203</v>
+        <v>493.6978991635575</v>
       </c>
       <c r="L11" t="n">
-        <v>1271.957808655251</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="M11" t="n">
-        <v>1271.957808655251</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N11" t="n">
-        <v>1271.957808655251</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O11" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="P11" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="Q11" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="R11" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S11" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T11" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U11" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="V11" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817717</v>
       </c>
       <c r="W11" t="n">
-        <v>1845.599623041337</v>
+        <v>508.0710839821186</v>
       </c>
       <c r="X11" t="n">
-        <v>1433.879624209084</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="Y11" t="n">
-        <v>1433.879624209084</v>
+        <v>369.6772422433207</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C12" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E12" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F12" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H12" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I12" t="n">
-        <v>44.35863542273854</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J12" t="n">
-        <v>316.0561247023296</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K12" t="n">
-        <v>475.2419029331441</v>
+        <v>493.6978991635575</v>
       </c>
       <c r="L12" t="n">
-        <v>475.2419029331441</v>
+        <v>493.6978991635575</v>
       </c>
       <c r="M12" t="n">
-        <v>932.027809635875</v>
+        <v>493.6978991635575</v>
       </c>
       <c r="N12" t="n">
-        <v>1388.813716338606</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O12" t="n">
         <v>1388.813716338606</v>
       </c>
       <c r="P12" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q12" t="n">
         <v>1845.599623041337</v>
@@ -5148,7 +5150,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U12" t="n">
         <v>1437.627243819906</v>
@@ -5157,13 +5159,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W12" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X12" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y12" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>710.2713085277261</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="C13" t="n">
-        <v>538.2987454066421</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="D13" t="n">
-        <v>374.9819725334128</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7737666862663</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="F13" t="n">
-        <v>36.91199246082674</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G13" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K13" t="n">
-        <v>76.20565529896515</v>
+        <v>76.2056552989647</v>
       </c>
       <c r="L13" t="n">
-        <v>430.8949765933859</v>
+        <v>430.8949765933855</v>
       </c>
       <c r="M13" t="n">
-        <v>822.0807715636367</v>
+        <v>822.0807715636363</v>
       </c>
       <c r="N13" t="n">
-        <v>1199.572282439673</v>
+        <v>1199.572282439672</v>
       </c>
       <c r="O13" t="n">
-        <v>1555.000411119436</v>
+        <v>1555.000411119435</v>
       </c>
       <c r="P13" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="Q13" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="R13" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S13" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="T13" t="n">
-        <v>1845.599623041337</v>
+        <v>1652.620215242047</v>
       </c>
       <c r="U13" t="n">
-        <v>1845.599623041337</v>
+        <v>1372.435766742351</v>
       </c>
       <c r="V13" t="n">
-        <v>1644.196345931731</v>
+        <v>1090.72429935038</v>
       </c>
       <c r="W13" t="n">
-        <v>1369.343942104244</v>
+        <v>815.8718955228931</v>
       </c>
       <c r="X13" t="n">
-        <v>1126.78004555005</v>
+        <v>573.3079989686981</v>
       </c>
       <c r="Y13" t="n">
-        <v>900.4372772397917</v>
+        <v>346.9652306584402</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1313.082283114669</v>
+        <v>1321.383964622947</v>
       </c>
       <c r="C14" t="n">
-        <v>886.181553127969</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D14" t="n">
-        <v>462.8889323129692</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E14" t="n">
-        <v>36.91199246082674</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K14" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L14" t="n">
-        <v>932.027809635875</v>
+        <v>493.6978991635575</v>
       </c>
       <c r="M14" t="n">
-        <v>1388.813716338606</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N14" t="n">
-        <v>1845.599623041337</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O14" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P14" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q14" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R14" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X14" t="n">
-        <v>1718.419553159778</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="Y14" t="n">
-        <v>1313.082283114669</v>
+        <v>1741.232328914477</v>
       </c>
     </row>
     <row r="15">
@@ -5337,40 +5339,40 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E15" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I15" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J15" t="n">
-        <v>316.0561247023297</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K15" t="n">
-        <v>316.0561247023297</v>
+        <v>493.6978991635575</v>
       </c>
       <c r="L15" t="n">
-        <v>316.0561247023297</v>
+        <v>932.0278096358752</v>
       </c>
       <c r="M15" t="n">
-        <v>772.8420314050605</v>
+        <v>932.0278096358752</v>
       </c>
       <c r="N15" t="n">
-        <v>1229.627938107791</v>
+        <v>932.0278096358752</v>
       </c>
       <c r="O15" t="n">
-        <v>1229.627938107791</v>
+        <v>932.0278096358752</v>
       </c>
       <c r="P15" t="n">
         <v>1388.813716338606</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>126.4702432027651</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C16" t="n">
-        <v>126.4702432027651</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D16" t="n">
-        <v>126.4702432027651</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E16" t="n">
-        <v>36.91199246082674</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F16" t="n">
-        <v>36.91199246082674</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G16" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J16" t="n">
-        <v>76.20565529896515</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K16" t="n">
-        <v>76.20565529896515</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L16" t="n">
-        <v>430.8949765933859</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M16" t="n">
-        <v>822.0807715636367</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N16" t="n">
-        <v>1199.572282439673</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O16" t="n">
-        <v>1555.000411119436</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P16" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="Q16" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="R16" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S16" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="T16" t="n">
-        <v>1432.125227786372</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="U16" t="n">
-        <v>1151.940779286676</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="V16" t="n">
-        <v>870.229311894705</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="W16" t="n">
-        <v>595.376908067218</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X16" t="n">
-        <v>352.8130115130231</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y16" t="n">
-        <v>126.4702432027651</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1738.206464925269</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="C17" t="n">
-        <v>1311.305734938569</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="D17" t="n">
-        <v>888.013114123569</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="E17" t="n">
-        <v>462.0361742714265</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F17" t="n">
-        <v>36.91199246082674</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="G17" t="n">
-        <v>36.91199246082674</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L17" t="n">
-        <v>36.91199246082674</v>
+        <v>572.9146475090618</v>
       </c>
       <c r="M17" t="n">
-        <v>358.3859952497895</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N17" t="n">
-        <v>815.1719019525203</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O17" t="n">
-        <v>1271.957808655251</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P17" t="n">
-        <v>1271.957808655251</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q17" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S17" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T17" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U17" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V17" t="n">
-        <v>1845.599623041337</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W17" t="n">
-        <v>1845.599623041337</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="X17" t="n">
-        <v>1845.599623041337</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="Y17" t="n">
-        <v>1845.599623041337</v>
+        <v>1283.774063102811</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C18" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E18" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F18" t="n">
-        <v>184.3418574809131</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I18" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J18" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K18" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L18" t="n">
-        <v>36.91199246082674</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M18" t="n">
-        <v>493.6978991635576</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N18" t="n">
-        <v>932.0278096358747</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O18" t="n">
-        <v>1388.813716338606</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P18" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q18" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R18" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S18" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U18" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V18" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W18" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X18" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y18" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.8845555819107</v>
+        <v>1051.483930128627</v>
       </c>
       <c r="C19" t="n">
-        <v>36.91199246082674</v>
+        <v>879.5113670075434</v>
       </c>
       <c r="D19" t="n">
-        <v>36.91199246082674</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E19" t="n">
-        <v>36.91199246082674</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F19" t="n">
-        <v>36.91199246082674</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G19" t="n">
-        <v>36.91199246082674</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J19" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734052</v>
       </c>
       <c r="K19" t="n">
-        <v>76.20565529896515</v>
+        <v>328.5171544792424</v>
       </c>
       <c r="L19" t="n">
-        <v>430.8949765933859</v>
+        <v>683.2064757736632</v>
       </c>
       <c r="M19" t="n">
-        <v>822.0807715636367</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N19" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O19" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P19" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q19" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R19" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S19" t="n">
-        <v>1845.599623041337</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T19" t="n">
-        <v>1704.705508877583</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U19" t="n">
-        <v>1424.521060377887</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V19" t="n">
-        <v>1142.809592985916</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="W19" t="n">
-        <v>867.9571891584293</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="X19" t="n">
-        <v>625.3932926042344</v>
+        <v>1241.649898840693</v>
       </c>
       <c r="Y19" t="n">
-        <v>399.0505242939764</v>
+        <v>1241.649898840693</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>988.0056192934842</v>
+        <v>892.9150276748471</v>
       </c>
       <c r="C20" t="n">
-        <v>561.1048893067843</v>
+        <v>892.9150276748471</v>
       </c>
       <c r="D20" t="n">
-        <v>137.8122684917846</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="E20" t="n">
-        <v>44.49822504924753</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J20" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K20" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L20" t="n">
-        <v>1100.603903091853</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M20" t="n">
-        <v>1100.603903091853</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="N20" t="n">
-        <v>1100.603903091853</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="O20" t="n">
-        <v>1100.603903091853</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P20" t="n">
-        <v>1651.269438076291</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580474</v>
+        <v>2152.580309506744</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V20" t="n">
-        <v>2224.911252462377</v>
+        <v>2129.820660843739</v>
       </c>
       <c r="W20" t="n">
-        <v>2224.911252462377</v>
+        <v>2129.820660843739</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.191253630124</v>
+        <v>1718.100662011487</v>
       </c>
       <c r="Y20" t="n">
-        <v>1407.853983585014</v>
+        <v>1312.763391966377</v>
       </c>
     </row>
     <row r="21">
@@ -5811,43 +5813,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F21" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J21" t="n">
         <v>316.1957143288386</v>
       </c>
       <c r="K21" t="n">
-        <v>751.8547856608809</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L21" t="n">
-        <v>751.8547856608809</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.520320645319</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N21" t="n">
-        <v>1853.185855629757</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="O21" t="n">
-        <v>1853.185855629757</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="P21" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q21" t="n">
         <v>1853.185855629757</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>717.8575411161469</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C22" t="n">
-        <v>545.8849779950629</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D22" t="n">
-        <v>382.5682051218336</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E22" t="n">
-        <v>216.3599992746871</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F22" t="n">
-        <v>44.49822504924753</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G22" t="n">
-        <v>44.49822504924753</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H22" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J22" t="n">
         <v>101.9895532734055</v>
@@ -5935,25 +5937,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S22" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T22" t="n">
-        <v>1933.494045912124</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U22" t="n">
-        <v>1933.494045912124</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V22" t="n">
-        <v>1651.782578520152</v>
+        <v>1896.161171757578</v>
       </c>
       <c r="W22" t="n">
-        <v>1376.930174692665</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X22" t="n">
-        <v>1134.366278138471</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y22" t="n">
-        <v>908.0235098282126</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2519.809002167562</v>
+        <v>1805.062888170846</v>
       </c>
       <c r="C23" t="n">
-        <v>2092.908272180862</v>
+        <v>1378.162158184146</v>
       </c>
       <c r="D23" t="n">
-        <v>1669.615651365862</v>
+        <v>954.869537369146</v>
       </c>
       <c r="E23" t="n">
-        <v>1243.638711513719</v>
+        <v>528.8925975170035</v>
       </c>
       <c r="F23" t="n">
-        <v>818.5145297031196</v>
+        <v>103.7684157064037</v>
       </c>
       <c r="G23" t="n">
-        <v>414.1754672925682</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H23" t="n">
-        <v>116.3070887666031</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I23" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J23" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K23" t="n">
-        <v>197.6476829459629</v>
+        <v>572.9146475090618</v>
       </c>
       <c r="L23" t="n">
-        <v>1127.272730565239</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M23" t="n">
-        <v>2131.558831984298</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N23" t="n">
-        <v>3107.809890470999</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="O23" t="n">
-        <v>3952.954540621811</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P23" t="n">
-        <v>3952.954540621811</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q23" t="n">
-        <v>3952.954540621811</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R23" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S23" t="n">
-        <v>3966.143581376854</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T23" t="n">
-        <v>3745.218010421487</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U23" t="n">
-        <v>3486.8631010179</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V23" t="n">
-        <v>3129.373686144149</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W23" t="n">
-        <v>2732.982336444496</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X23" t="n">
-        <v>2519.809002167562</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y23" t="n">
-        <v>2519.809002167562</v>
+        <v>2224.911252462376</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>648.5337085415294</v>
+        <v>983.3471129133208</v>
       </c>
       <c r="C24" t="n">
-        <v>531.0278050590342</v>
+        <v>865.8412094308255</v>
       </c>
       <c r="D24" t="n">
-        <v>427.1878465743193</v>
+        <v>762.0012509461105</v>
       </c>
       <c r="E24" t="n">
-        <v>322.4859128472565</v>
+        <v>657.2993172190478</v>
       </c>
       <c r="F24" t="n">
-        <v>228.8400825301607</v>
+        <v>563.653486901952</v>
       </c>
       <c r="G24" t="n">
-        <v>134.7863107477647</v>
+        <v>469.599715119556</v>
       </c>
       <c r="H24" t="n">
-        <v>81.41021751007428</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="I24" t="n">
-        <v>81.41021751007428</v>
+        <v>423.6702648437774</v>
       </c>
       <c r="J24" t="n">
-        <v>81.41021751007428</v>
+        <v>695.3677541233685</v>
       </c>
       <c r="K24" t="n">
-        <v>81.41021751007428</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="L24" t="n">
-        <v>81.41021751007428</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M24" t="n">
-        <v>81.41021751007428</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N24" t="n">
-        <v>1000.616570079112</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="O24" t="n">
-        <v>1890.097848090584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P24" t="n">
-        <v>1890.097848090584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q24" t="n">
-        <v>1890.097848090584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R24" t="n">
-        <v>1890.097848090584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S24" t="n">
-        <v>1808.773600651838</v>
+        <v>2143.58700502363</v>
       </c>
       <c r="T24" t="n">
-        <v>1666.893664949517</v>
+        <v>2001.707069321308</v>
       </c>
       <c r="U24" t="n">
-        <v>1482.125468869153</v>
+        <v>1816.938873240945</v>
       </c>
       <c r="V24" t="n">
-        <v>1277.15233000842</v>
+        <v>1611.965734380211</v>
       </c>
       <c r="W24" t="n">
-        <v>1080.630952841637</v>
+        <v>1415.444357213428</v>
       </c>
       <c r="X24" t="n">
-        <v>917.1536066082998</v>
+        <v>1251.967010980091</v>
       </c>
       <c r="Y24" t="n">
-        <v>777.4607179615922</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>495.655251771804</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C25" t="n">
-        <v>323.68268865072</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6184233572207</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E25" t="n">
-        <v>81.41021751007428</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F25" t="n">
-        <v>81.41021751007428</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G25" t="n">
-        <v>81.41021751007428</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H25" t="n">
-        <v>81.41021751007428</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I25" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9015457342323</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K25" t="n">
-        <v>365.4291469400695</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L25" t="n">
-        <v>720.1184682344903</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M25" t="n">
-        <v>1111.304263204741</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N25" t="n">
-        <v>1488.795774080777</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O25" t="n">
-        <v>1844.22390276054</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P25" t="n">
-        <v>2134.823114682441</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q25" t="n">
-        <v>2261.823244923203</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>2214.784631610376</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2044.649584129511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T25" t="n">
-        <v>1801.310236355411</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U25" t="n">
-        <v>1521.125787855715</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V25" t="n">
-        <v>1239.414320463744</v>
+        <v>1943.199785070404</v>
       </c>
       <c r="W25" t="n">
-        <v>964.5619166362569</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X25" t="n">
-        <v>721.998020082062</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y25" t="n">
-        <v>495.655251771804</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1320.668515703089</v>
+        <v>988.0056192934833</v>
       </c>
       <c r="C26" t="n">
-        <v>893.7677857163897</v>
+        <v>988.0056192934833</v>
       </c>
       <c r="D26" t="n">
-        <v>470.47516490139</v>
+        <v>564.7129984784835</v>
       </c>
       <c r="E26" t="n">
-        <v>44.49822504924753</v>
+        <v>564.7129984784835</v>
       </c>
       <c r="F26" t="n">
-        <v>44.49822504924753</v>
+        <v>139.5888166678837</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924753</v>
+        <v>139.5888166678837</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J26" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K26" t="n">
-        <v>455.3583126271592</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L26" t="n">
-        <v>1006.023847611597</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M26" t="n">
-        <v>1556.689382596036</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="N26" t="n">
-        <v>1556.689382596036</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="O26" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P26" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V26" t="n">
-        <v>2137.725784580452</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W26" t="n">
-        <v>2137.725784580452</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X26" t="n">
-        <v>1726.005785748199</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y26" t="n">
-        <v>1320.668515703089</v>
+        <v>1407.853983585013</v>
       </c>
     </row>
     <row r="27">
@@ -6285,46 +6287,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F27" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I27" t="n">
-        <v>51.94486801115937</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J27" t="n">
         <v>323.6423572907505</v>
       </c>
       <c r="K27" t="n">
-        <v>669.8354755761777</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L27" t="n">
-        <v>669.8354755761777</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M27" t="n">
-        <v>1220.501010560616</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N27" t="n">
-        <v>1771.166545545054</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O27" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P27" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q27" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R27" t="n">
         <v>1853.185855629757</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1013.111810510756</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C28" t="n">
-        <v>841.1392473896724</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D28" t="n">
-        <v>677.8224745164431</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E28" t="n">
-        <v>511.6142686692966</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F28" t="n">
         <v>454.3200315065851</v>
@@ -6379,7 +6381,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6406,28 +6408,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T28" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U28" t="n">
-        <v>1727.553143168988</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V28" t="n">
-        <v>1445.841675777017</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W28" t="n">
-        <v>1445.841675777017</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X28" t="n">
-        <v>1203.277779222822</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y28" t="n">
-        <v>1203.277779222822</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1726.839139109241</v>
+        <v>1393.342889338593</v>
       </c>
       <c r="C29" t="n">
-        <v>1299.938409122541</v>
+        <v>1393.342889338593</v>
       </c>
       <c r="D29" t="n">
-        <v>1299.938409122541</v>
+        <v>970.0502685235931</v>
       </c>
       <c r="E29" t="n">
         <v>873.9614692703988</v>
@@ -6452,61 +6454,61 @@
         <v>448.8372874597989</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J29" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K29" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L29" t="n">
-        <v>572.914647509062</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M29" t="n">
-        <v>572.914647509062</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N29" t="n">
-        <v>1123.5801824935</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O29" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W29" t="n">
-        <v>2138.559137941494</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X29" t="n">
-        <v>1726.839139109241</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y29" t="n">
-        <v>1726.839139109241</v>
+        <v>1813.191253630123</v>
       </c>
     </row>
     <row r="30">
@@ -6522,46 +6524,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F30" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K30" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L30" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M30" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N30" t="n">
-        <v>669.8354755761777</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O30" t="n">
-        <v>1220.501010560616</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P30" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q30" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R30" t="n">
         <v>1853.185855629757</v>
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>955.7067844524004</v>
+        <v>733.5956631384639</v>
       </c>
       <c r="C31" t="n">
-        <v>955.7067844524004</v>
+        <v>733.5956631384639</v>
       </c>
       <c r="D31" t="n">
-        <v>792.3900115791711</v>
+        <v>733.5956631384639</v>
       </c>
       <c r="E31" t="n">
         <v>626.1818057320246</v>
@@ -6616,7 +6618,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6646,25 +6648,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S31" t="n">
-        <v>2171.343289248377</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.343289248377</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U31" t="n">
-        <v>2171.343289248377</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.631821856406</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W31" t="n">
-        <v>1614.779418028919</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="X31" t="n">
-        <v>1372.215521474724</v>
+        <v>959.9384314487219</v>
       </c>
       <c r="Y31" t="n">
-        <v>1145.872753164466</v>
+        <v>733.5956631384639</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1320.668515703089</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="C32" t="n">
-        <v>893.7677857163897</v>
+        <v>2055.996279720035</v>
       </c>
       <c r="D32" t="n">
-        <v>470.47516490139</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E32" t="n">
-        <v>44.49822504924753</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924753</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J32" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K32" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L32" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M32" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="N32" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="O32" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P32" t="n">
-        <v>2059.098288819458</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X32" t="n">
-        <v>2145.854150039729</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y32" t="n">
-        <v>1740.51687999462</v>
+        <v>2224.911252462376</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6767,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J33" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K33" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L33" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M33" t="n">
-        <v>866.8612493132769</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N33" t="n">
-        <v>1417.526784297715</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O33" t="n">
-        <v>1417.526784297715</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P33" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q33" t="n">
         <v>1853.185855629757</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>268.5772905989112</v>
+        <v>626.1818057320245</v>
       </c>
       <c r="C34" t="n">
-        <v>144.2667933089716</v>
+        <v>626.1818057320245</v>
       </c>
       <c r="D34" t="n">
-        <v>144.2667933089716</v>
+        <v>626.1818057320245</v>
       </c>
       <c r="E34" t="n">
-        <v>144.2667933089716</v>
+        <v>626.1818057320245</v>
       </c>
       <c r="F34" t="n">
-        <v>144.2667933089716</v>
+        <v>454.3200315065849</v>
       </c>
       <c r="G34" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="H34" t="n">
-        <v>144.2667933089716</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6865,7 +6867,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M34" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N34" t="n">
         <v>1451.88378161995</v>
@@ -6895,13 +6897,13 @@
         <v>1202.502328002917</v>
       </c>
       <c r="W34" t="n">
-        <v>927.6499241754298</v>
+        <v>927.6499241754302</v>
       </c>
       <c r="X34" t="n">
-        <v>685.0860276212348</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="Y34" t="n">
-        <v>458.7432593109769</v>
+        <v>626.1818057320245</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>291.2510154811631</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="C35" t="n">
-        <v>291.2510154811631</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="D35" t="n">
-        <v>291.2510154811631</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="E35" t="n">
-        <v>291.2510154811631</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="F35" t="n">
-        <v>291.2510154811631</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="G35" t="n">
-        <v>291.2510154811631</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L35" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M35" t="n">
-        <v>1145.829295018124</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="N35" t="n">
-        <v>1696.494830002562</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="O35" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P35" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q35" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S35" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T35" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U35" t="n">
-        <v>1862.189048931929</v>
+        <v>1745.630772103421</v>
       </c>
       <c r="V35" t="n">
-        <v>1504.699634058179</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W35" t="n">
-        <v>1108.308284358525</v>
+        <v>991.7500075300175</v>
       </c>
       <c r="X35" t="n">
-        <v>696.5882855262728</v>
+        <v>991.7500075300175</v>
       </c>
       <c r="Y35" t="n">
-        <v>291.2510154811631</v>
+        <v>781.6025372422928</v>
       </c>
     </row>
     <row r="36">
@@ -6996,40 +6998,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F36" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K36" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L36" t="n">
+        <v>44.49822504924752</v>
+      </c>
+      <c r="M36" t="n">
+        <v>595.1637600336854</v>
+      </c>
+      <c r="N36" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="M36" t="n">
-        <v>1302.520320645319</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1302.520320645319</v>
-      </c>
       <c r="O36" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P36" t="n">
         <v>1853.185855629757</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>454.3200315065851</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C37" t="n">
-        <v>454.3200315065851</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D37" t="n">
-        <v>454.3200315065851</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E37" t="n">
-        <v>454.3200315065851</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F37" t="n">
         <v>454.3200315065851</v>
@@ -7090,55 +7092,55 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
       </c>
       <c r="K37" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L37" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M37" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N37" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O37" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P37" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q37" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S37" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.398243894585</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U37" t="n">
-        <v>1484.213795394889</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V37" t="n">
-        <v>1202.502328002918</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W37" t="n">
-        <v>927.6499241754307</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X37" t="n">
-        <v>685.0860276212358</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y37" t="n">
-        <v>458.7432593109778</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>809.6951148527796</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="C38" t="n">
-        <v>469.6224068598473</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="D38" t="n">
-        <v>469.6224068598473</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="E38" t="n">
-        <v>469.6224068598473</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="F38" t="n">
-        <v>44.49822504924753</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J38" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K38" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L38" t="n">
-        <v>957.7672188505812</v>
+        <v>572.9146475090618</v>
       </c>
       <c r="M38" t="n">
-        <v>1100.603903091853</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N38" t="n">
-        <v>1651.269438076291</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O38" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P38" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S38" t="n">
-        <v>2120.543958335517</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T38" t="n">
-        <v>1899.61838738015</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U38" t="n">
-        <v>1641.263477976562</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V38" t="n">
-        <v>1641.263477976562</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W38" t="n">
-        <v>1641.263477976562</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="X38" t="n">
-        <v>1229.54347914431</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="Y38" t="n">
-        <v>1229.54347914431</v>
+        <v>887.3827134031578</v>
       </c>
     </row>
     <row r="39">
@@ -7233,46 +7235,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E39" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F39" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I39" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J39" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K39" t="n">
-        <v>602.6104029955975</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L39" t="n">
-        <v>602.6104029955975</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M39" t="n">
-        <v>602.6104029955975</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N39" t="n">
-        <v>756.3555336978366</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O39" t="n">
-        <v>756.3555336978366</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P39" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q39" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R39" t="n">
         <v>1853.185855629757</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.522543441455</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C40" t="n">
-        <v>926.5499803203711</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D40" t="n">
-        <v>763.2332074471418</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E40" t="n">
-        <v>597.0250015999953</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F40" t="n">
-        <v>425.1632273745557</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G40" t="n">
-        <v>258.9062576687879</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H40" t="n">
-        <v>115.1099891769423</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7348,34 +7350,34 @@
         <v>1807.311910299713</v>
       </c>
       <c r="P40" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q40" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S40" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T40" t="n">
-        <v>1811.436857207411</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U40" t="n">
-        <v>1531.252408707716</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V40" t="n">
-        <v>1531.252408707716</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W40" t="n">
-        <v>1531.252408707716</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X40" t="n">
-        <v>1288.688512153521</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y40" t="n">
-        <v>1288.688512153521</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1195.874332975104</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C41" t="n">
-        <v>1195.874332975104</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D41" t="n">
-        <v>1195.874332975104</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E41" t="n">
-        <v>769.8973931229615</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F41" t="n">
-        <v>769.8973931229615</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G41" t="n">
-        <v>365.5583307124101</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H41" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K41" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L41" t="n">
-        <v>595.1637600336857</v>
+        <v>572.9146475090618</v>
       </c>
       <c r="M41" t="n">
-        <v>1100.603903091853</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N41" t="n">
-        <v>1100.603903091853</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O41" t="n">
-        <v>1100.603903091853</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P41" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T41" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U41" t="n">
-        <v>2003.98568150701</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="V41" t="n">
-        <v>2003.98568150701</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="W41" t="n">
-        <v>1607.594331807357</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="X41" t="n">
-        <v>1195.874332975104</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="Y41" t="n">
-        <v>1195.874332975104</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="42">
@@ -7470,46 +7472,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D42" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E42" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F42" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I42" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J42" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K42" t="n">
-        <v>602.6104029955975</v>
+        <v>201.1892506764434</v>
       </c>
       <c r="L42" t="n">
-        <v>602.6104029955975</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="M42" t="n">
-        <v>602.6104029955975</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N42" t="n">
-        <v>1153.275937980036</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O42" t="n">
-        <v>1220.501010560616</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P42" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q42" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R42" t="n">
         <v>1853.185855629757</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>962.2361343535731</v>
+        <v>1047.64686728427</v>
       </c>
       <c r="C43" t="n">
-        <v>855.9382161926764</v>
+        <v>875.674304163186</v>
       </c>
       <c r="D43" t="n">
-        <v>692.6214433194471</v>
+        <v>712.3575312899567</v>
       </c>
       <c r="E43" t="n">
-        <v>526.4132374723006</v>
+        <v>546.1493254428102</v>
       </c>
       <c r="F43" t="n">
-        <v>354.551463246861</v>
+        <v>374.2875512173706</v>
       </c>
       <c r="G43" t="n">
-        <v>188.2944935410931</v>
+        <v>208.0305815116027</v>
       </c>
       <c r="H43" t="n">
-        <v>44.49822504924753</v>
+        <v>64.23431301975714</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7588,31 +7590,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q43" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R43" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S43" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T43" t="n">
-        <v>2177.87263914955</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U43" t="n">
-        <v>2177.87263914955</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="V43" t="n">
-        <v>1896.161171757579</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="W43" t="n">
-        <v>1621.308767930092</v>
+        <v>1706.719500860788</v>
       </c>
       <c r="X43" t="n">
-        <v>1378.744871375897</v>
+        <v>1464.155604306594</v>
       </c>
       <c r="Y43" t="n">
-        <v>1152.402103065639</v>
+        <v>1237.812835996336</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1291.444405673078</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="C44" t="n">
-        <v>864.5436756863778</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="D44" t="n">
-        <v>441.2510548713781</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="E44" t="n">
-        <v>441.2510548713781</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="F44" t="n">
-        <v>441.2510548713781</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="G44" t="n">
-        <v>36.91199246082674</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H44" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K44" t="n">
-        <v>36.91199246082674</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L44" t="n">
-        <v>493.6978991635576</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M44" t="n">
-        <v>815.1719019525203</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N44" t="n">
-        <v>815.1719019525203</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O44" t="n">
-        <v>1271.957808655251</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P44" t="n">
-        <v>1271.957808655251</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q44" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S44" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T44" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U44" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V44" t="n">
-        <v>1845.599623041337</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W44" t="n">
-        <v>1703.16440450533</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="X44" t="n">
-        <v>1291.444405673078</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="Y44" t="n">
-        <v>1291.444405673078</v>
+        <v>781.6025372422928</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C45" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809132</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I45" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J45" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K45" t="n">
-        <v>44.35863542273854</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L45" t="n">
-        <v>393.2225928484409</v>
+        <v>838.37484378254</v>
       </c>
       <c r="M45" t="n">
-        <v>850.0084995511718</v>
+        <v>838.37484378254</v>
       </c>
       <c r="N45" t="n">
-        <v>1306.794406253903</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O45" t="n">
-        <v>1306.794406253903</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P45" t="n">
-        <v>1763.580312956634</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q45" t="n">
-        <v>1763.580312956634</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S45" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>911.6745856373313</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="C46" t="n">
-        <v>739.7020225162473</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D46" t="n">
-        <v>576.385249643018</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E46" t="n">
-        <v>410.1770437958716</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F46" t="n">
-        <v>238.315269570432</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G46" t="n">
-        <v>72.05829986466412</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J46" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K46" t="n">
-        <v>76.20565529896515</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L46" t="n">
-        <v>430.8949765933859</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>822.0807715636367</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N46" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O46" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P46" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>1845.599623041337</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T46" t="n">
-        <v>1845.599623041337</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U46" t="n">
-        <v>1845.599623041337</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V46" t="n">
-        <v>1845.599623041337</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W46" t="n">
-        <v>1570.74721921385</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X46" t="n">
-        <v>1328.183322659655</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="Y46" t="n">
-        <v>1101.840554349397</v>
+        <v>855.9382161926764</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>479.2295883411377</v>
       </c>
       <c r="L2" t="n">
-        <v>363.0332573709691</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,28 +8060,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936674</v>
       </c>
       <c r="L3" t="n">
-        <v>190.8306636765794</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>106.810817211545</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>484.5717954825563</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>484.1469440493126</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608369</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8149,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>234.8530592691132</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,22 +8218,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>498.8311686597659</v>
       </c>
       <c r="N5" t="n">
-        <v>480.0371081600191</v>
+        <v>498.6795285947801</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>480.3328471358044</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>483.7991395936674</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>183.9656051068836</v>
       </c>
       <c r="P6" t="n">
-        <v>381.6805385660549</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493126</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,16 +8373,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>417.7126065281028</v>
+        <v>42.23240770727544</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>499.711948192957</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>498.8311686597659</v>
       </c>
       <c r="N8" t="n">
-        <v>456.4271212953049</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>114.5898268852863</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,28 +8531,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>191.4874666845722</v>
       </c>
       <c r="P9" t="n">
-        <v>464.5283265304016</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493126</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8611,7 +8613,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608369</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>455.6196014764236</v>
+        <v>497.1645065551434</v>
       </c>
       <c r="L11" t="n">
-        <v>499.7119481929572</v>
+        <v>499.711948192957</v>
       </c>
       <c r="M11" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947801</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>480.1484446815972</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,31 +8765,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>183.1929492179945</v>
+        <v>483.7991395936674</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>465.9293750477955</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q12" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8848,7 +8850,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K13" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608369</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8927,19 +8929,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>481.069527758196</v>
+        <v>499.711948192957</v>
       </c>
       <c r="M14" t="n">
-        <v>498.831168659766</v>
+        <v>498.8311686597659</v>
       </c>
       <c r="N14" t="n">
-        <v>498.6795285947802</v>
+        <v>498.6795285947801</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>361.4046720736148</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -8948,7 +8950,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936674</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>465.272572039803</v>
       </c>
       <c r="M15" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>182.5645565894896</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q15" t="n">
-        <v>484.1469440493127</v>
+        <v>484.1469440493126</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9082,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.327324507274</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K16" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9100,7 +9102,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>126.7901678844532</v>
       </c>
       <c r="Q16" t="n">
         <v>24.61956276478495</v>
@@ -9167,25 +9169,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>572.0660045132433</v>
       </c>
       <c r="M17" t="n">
-        <v>362.152477837778</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N17" t="n">
-        <v>498.6795285947802</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O17" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,19 +9248,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M18" t="n">
-        <v>484.4966862726622</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N18" t="n">
-        <v>464.1005135391146</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O18" t="n">
-        <v>484.5717954825564</v>
+        <v>181.445652982016</v>
       </c>
       <c r="P18" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9319,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>78.7088046951723</v>
       </c>
       <c r="K19" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9340,7 +9342,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>182.5915214642101</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P20" t="n">
-        <v>593.8031749258255</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>108.094208435838</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,25 +9482,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>462.4589018454972</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>549.2245073196785</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9638,19 +9640,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>153.1761820431817</v>
+        <v>569.5185628754298</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
         <v>37.5753618102313</v>
@@ -9659,7 +9661,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,25 +9713,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>454.9370402678093</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N24" t="n">
-        <v>949.8342934347921</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>84.50867025038121</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>547.8252218830989</v>
       </c>
       <c r="O26" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9954,19 +9956,19 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>372.0892523034619</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279221</v>
+        <v>455.6345869468037</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -9975,7 +9977,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>205.7998844961774</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N29" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O29" t="n">
-        <v>593.6187724716183</v>
+        <v>571.1449214366444</v>
       </c>
       <c r="P29" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10191,28 +10193,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N30" t="n">
-        <v>96.76900350898819</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O30" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P30" t="n">
-        <v>577.9986543204228</v>
+        <v>180.0446044646224</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>38.31204243262292</v>
@@ -10358,16 +10360,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O32" t="n">
-        <v>593.6187724716183</v>
+        <v>547.9365584046774</v>
       </c>
       <c r="P32" t="n">
-        <v>593.8031749258255</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q32" t="n">
-        <v>84.86874406016992</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10425,7 +10427,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10434,19 +10436,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>579.3245936279221</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>180.0446044646222</v>
       </c>
       <c r="Q33" t="n">
-        <v>462.8067063011424</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10589,25 +10591,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>593.6590760150259</v>
+        <v>547.9768619480847</v>
       </c>
       <c r="N35" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>110.4525178970659</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,22 +10667,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>181.370543772121</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O36" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>180.0446044646224</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10744,7 +10746,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>572.0660045132433</v>
       </c>
       <c r="M38" t="n">
-        <v>181.710741931019</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N38" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P38" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N39" t="n">
-        <v>176.6411400339852</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P39" t="n">
-        <v>577.9986543204228</v>
+        <v>180.0446044646224</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10996,7 +10998,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.915358154857</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11060,28 +11062,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>572.0660045132433</v>
       </c>
       <c r="M41" t="n">
-        <v>547.9768619480852</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P41" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>578.6270469489275</v>
+        <v>180.6729970931272</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N42" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O42" t="n">
-        <v>91.07600343998001</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11236,7 +11238,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L44" t="n">
-        <v>499.7119481929572</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M44" t="n">
-        <v>362.152477837778</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O44" t="n">
-        <v>498.7908651163583</v>
+        <v>571.1449214366444</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L45" t="n">
-        <v>374.9029224977673</v>
+        <v>268.1828480767089</v>
       </c>
       <c r="M45" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11473,7 +11475,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22547,22 +22549,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>82.49371450716359</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>25.19691331653297</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -22610,7 +22612,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -22708,19 +22710,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>25.06095076655924</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22759,13 +22761,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22784,10 +22786,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>407.2286002995888</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -22799,7 +22801,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22838,7 +22840,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>275.6272398561817</v>
       </c>
     </row>
     <row r="6">
@@ -22942,16 +22944,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>113.7937326759387</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22960,7 +22962,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22990,7 +22992,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -22999,13 +23001,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.5624621344632</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23072,22 +23074,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>125.4142447354814</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>273.8684571618419</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23194,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23239,7 +23241,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>206.3343440542552</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>296.0605129651436</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -23273,10 +23275,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>270.5928955225203</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23467,13 +23469,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>49.85634057506246</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>79.50510837954207</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>412.6542752992987</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -23558,10 +23560,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>281.6945296611873</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>75.88345555415601</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23703,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>206.3343440542552</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>309.3306541137072</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>345.4402998442018</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>75.43346327040838</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>101.4207812742428</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23969,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>329.3362674455093</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -24026,7 +24028,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>259.7748350225633</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -24139,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24175,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>167.4048439973644</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>65.01789851058615</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>341.6181830358612</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>196.5611979097647</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>86.37998250393268</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>117.2205539080145</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>200.7500090382557</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -24500,7 +24502,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>267.6009075219077</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>113.4218616921007</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>326.5892591929586</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24740,7 +24742,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>306.9388428269825</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>58.20640495630006</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24886,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>161.9696406038964</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>255.4058996719153</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24926,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24980,10 +24982,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>329.3362674455093</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>47.18544517283286</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25084,13 +25086,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>165.7641609568367</v>
       </c>
     </row>
     <row r="35">
@@ -25166,13 +25168,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>50.60443221310913</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25217,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>193.2379017598111</v>
       </c>
     </row>
     <row r="36">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.8853134985962</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>85.95974177382993</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -25400,16 +25402,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>316.1505655932374</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>28.865236090709</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>11.58809267813808</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,19 +25681,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>197.0938715589674</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>65.01789851058537</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>79.23215548632227</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25865,10 +25867,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>251.4165698520102</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>296.5615229454022</v>
       </c>
     </row>
     <row r="45">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26071,25 +26073,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>122.5754395060285</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>436278.5742239321</v>
+        <v>436278.5742239319</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>436278.5742239321</v>
+        <v>436278.5742239319</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>436278.5742239321</v>
+        <v>436278.5742239319</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>436278.5742239321</v>
+        <v>491599.4626948609</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>491599.4626948612</v>
+        <v>491599.4626948609</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>698415.3004176089</v>
+        <v>491599.462694861</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>491599.4626948609</v>
+        <v>491599.462694861</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>491599.4626948611</v>
+        <v>491599.4626948609</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>491599.4626948612</v>
+        <v>491599.462694861</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>491599.4626948612</v>
+        <v>491599.462694861</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>491599.4626948612</v>
+        <v>491599.462694861</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>436278.5742239319</v>
+        <v>491599.462694861</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105244.5587950954</v>
+        <v>105244.5587950953</v>
       </c>
       <c r="C2" t="n">
-        <v>105244.5587950954</v>
+        <v>105244.5587950953</v>
       </c>
       <c r="D2" t="n">
-        <v>105244.5587950954</v>
+        <v>105244.5587950953</v>
       </c>
       <c r="E2" t="n">
-        <v>105244.5587950954</v>
+        <v>105244.5587950953</v>
       </c>
       <c r="F2" t="n">
-        <v>105244.5587950954</v>
+        <v>105244.5587950953</v>
       </c>
       <c r="G2" t="n">
-        <v>105244.5587950954</v>
+        <v>118588.5340553546</v>
       </c>
       <c r="H2" t="n">
         <v>118588.5340553546</v>
       </c>
       <c r="I2" t="n">
-        <v>168474.671069448</v>
+        <v>118588.5340553546</v>
       </c>
       <c r="J2" t="n">
         <v>118588.5340553546</v>
       </c>
       <c r="K2" t="n">
+        <v>118588.5340553546</v>
+      </c>
+      <c r="L2" t="n">
         <v>118588.5340553547</v>
-      </c>
-      <c r="L2" t="n">
-        <v>118588.5340553546</v>
       </c>
       <c r="M2" t="n">
         <v>118588.5340553546</v>
       </c>
       <c r="N2" t="n">
-        <v>118588.5340553547</v>
+        <v>118588.5340553546</v>
       </c>
       <c r="O2" t="n">
         <v>118588.5340553546</v>
       </c>
       <c r="P2" t="n">
-        <v>105244.5587950954</v>
+        <v>118588.5340553546</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>154625.7206181204</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>25990.90698746639</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>122695.9243396938</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>120722.5169427569</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>22820.43073295063</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15700.44267092141</v>
+        <v>15700.4426709214</v>
       </c>
       <c r="C4" t="n">
-        <v>15700.44267092141</v>
+        <v>15700.4426709214</v>
       </c>
       <c r="D4" t="n">
-        <v>15700.44267092141</v>
+        <v>15700.4426709214</v>
       </c>
       <c r="E4" t="n">
-        <v>15700.44267092141</v>
+        <v>15700.4426709214</v>
       </c>
       <c r="F4" t="n">
         <v>15700.44267092141</v>
       </c>
       <c r="G4" t="n">
-        <v>15700.44267092141</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="H4" t="n">
         <v>17703.77972371005</v>
       </c>
       <c r="I4" t="n">
-        <v>25193.20808007544</v>
+        <v>17703.77972371004</v>
       </c>
       <c r="J4" t="n">
-        <v>17703.77972371005</v>
+        <v>17703.77972371004</v>
       </c>
       <c r="K4" t="n">
-        <v>17703.77972371005</v>
+        <v>17703.77972371004</v>
       </c>
       <c r="L4" t="n">
         <v>17703.77972371005</v>
@@ -26451,13 +26453,13 @@
         <v>17703.77972371005</v>
       </c>
       <c r="N4" t="n">
-        <v>17703.77972371005</v>
+        <v>17703.77972371004</v>
       </c>
       <c r="O4" t="n">
-        <v>17703.77972371005</v>
+        <v>17703.77972371004</v>
       </c>
       <c r="P4" t="n">
-        <v>15700.44267092141</v>
+        <v>17703.77972371004</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>61680.71427022831</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>61680.71427022831</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>61680.71427022831</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="I5" t="n">
-        <v>61871.76530765645</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-126762.3187641748</v>
       </c>
       <c r="C6" t="n">
-        <v>27863.40185394567</v>
+        <v>27863.40185394559</v>
       </c>
       <c r="D6" t="n">
-        <v>27863.40185394566</v>
+        <v>27863.40185394562</v>
       </c>
       <c r="E6" t="n">
-        <v>61491.00185394564</v>
+        <v>61491.00185394562</v>
       </c>
       <c r="F6" t="n">
-        <v>61491.00185394566</v>
+        <v>61491.00185394561</v>
       </c>
       <c r="G6" t="n">
-        <v>61491.00185394566</v>
+        <v>41075.19630675008</v>
       </c>
       <c r="H6" t="n">
-        <v>41480.68043860115</v>
+        <v>67066.10329421646</v>
       </c>
       <c r="I6" t="n">
-        <v>-41286.22665797774</v>
+        <v>67066.10329421649</v>
       </c>
       <c r="J6" t="n">
+        <v>-53656.41364854039</v>
+      </c>
+      <c r="K6" t="n">
+        <v>67066.10329421646</v>
+      </c>
+      <c r="L6" t="n">
+        <v>67066.1032942165</v>
+      </c>
+      <c r="M6" t="n">
+        <v>67066.10329421649</v>
+      </c>
+      <c r="N6" t="n">
+        <v>67066.10329421646</v>
+      </c>
+      <c r="O6" t="n">
+        <v>44245.6725612658</v>
+      </c>
+      <c r="P6" t="n">
         <v>67066.10329421647</v>
-      </c>
-      <c r="K6" t="n">
-        <v>67066.10329421649</v>
-      </c>
-      <c r="L6" t="n">
-        <v>67066.10329421647</v>
-      </c>
-      <c r="M6" t="n">
-        <v>67066.10329421643</v>
-      </c>
-      <c r="N6" t="n">
-        <v>67066.1032942165</v>
-      </c>
-      <c r="O6" t="n">
-        <v>67066.10329421646</v>
-      </c>
-      <c r="P6" t="n">
-        <v>61491.00185394566</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="I4" t="n">
-        <v>1017.627718875928</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.82790735525981</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603343</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>94.82790735525981</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>94.82790735525981</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>443.4649875463284</v>
       </c>
       <c r="L2" t="n">
-        <v>324.7212149383462</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,28 +34780,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L3" t="n">
-        <v>168.3155769623498</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>85.46778899800334</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>39.69056852337169</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34869,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>212.3538717706888</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N5" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="O5" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="P5" t="n">
         <v>442.7574853255731</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>461.3999057603342</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>160.7937153846614</v>
       </c>
       <c r="P6" t="n">
-        <v>359.9096973612262</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781578962</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N8" t="n">
-        <v>419.1474984608589</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>77.1988675292622</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>168.31557696235</v>
       </c>
       <c r="P9" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>39.69056852337214</v>
+        <v>39.69056852337169</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>419.8550006816142</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L11" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>160.7937153846611</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>39.69056852337214</v>
+        <v>39.69056852337169</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
@@ -35647,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M14" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N14" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>442.7574853255734</v>
       </c>
       <c r="M15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>160.7937153846609</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q15" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
         <v>358.2720417115361</v>
@@ -35820,7 +35822,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>293.5345574968697</v>
+        <v>104.4093672264667</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35887,25 +35889,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>533.7539620806205</v>
       </c>
       <c r="M17" t="n">
-        <v>324.7212149383462</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N17" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O17" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M18" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N18" t="n">
-        <v>442.7574853255729</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O18" t="n">
-        <v>461.3999057603342</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="P18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>58.07204871127044</v>
       </c>
       <c r="K19" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36060,7 +36062,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P20" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>73.06155854104156</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>527.4536661148499</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,19 +36360,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>117.4115812483723</v>
+        <v>533.7539620806205</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>432.537806434476</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N24" t="n">
-        <v>928.4912652212505</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>510.5455990486529</v>
       </c>
       <c r="O26" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36674,19 +36676,19 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>349.6900184701286</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155941</v>
+        <v>432.5378064344757</v>
       </c>
       <c r="N27" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>167.4878420635545</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N29" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O29" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="P29" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N30" t="n">
-        <v>75.42597529544652</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O30" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P30" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37078,16 +37080,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O32" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="P32" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.74406945557187</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N33" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>158.2737632597935</v>
       </c>
       <c r="Q33" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486529</v>
       </c>
       <c r="N35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>73.06155854104179</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O36" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K37" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L37" t="n">
         <v>358.2720417115361</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>533.7539620806205</v>
       </c>
       <c r="M38" t="n">
-        <v>144.2794790315872</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N38" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N39" t="n">
-        <v>155.2981118204435</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P39" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37716,7 +37718,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5345574968705</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
         <v>128.2829598391535</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>533.7539620806205</v>
       </c>
       <c r="M41" t="n">
-        <v>510.5455990486534</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N42" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O42" t="n">
-        <v>67.9041137177578</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37958,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L44" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M44" t="n">
-        <v>324.7212149383462</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O44" t="n">
-        <v>461.3999057603342</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L45" t="n">
-        <v>352.3878357835378</v>
+        <v>245.6677613624794</v>
       </c>
       <c r="M45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
         <v>358.2720417115361</v>
@@ -38193,7 +38195,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>219479.9650573947</v>
+        <v>213874.2968139888</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19087887.38355838</v>
+        <v>18893388.64056919</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9612256.232354168</v>
+        <v>9421628.014350457</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5428295.101861428</v>
+        <v>5524763.697586961</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>70.31312004925383</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>375.0987584699129</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>139.4851730221157</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -879,13 +879,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>67.82221002723692</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>372.0281770515513</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>125.6566574884768</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>42.09444105482045</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>56.34942380724652</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1119,10 +1119,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>130.3571155740704</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>222.6764156639229</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1296,19 +1296,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>148.8955007459258</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>65.76953573495688</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>266.3113837484324</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1435,10 +1435,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>137.0099033214099</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>31.16488690719394</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>191.0496137212965</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9.977447387534122</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1621,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>106.8364187178484</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1776,7 +1776,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>108.1292563222846</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1785,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>65.76953573495688</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>76.27687060941918</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -1897,19 +1897,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>58.24610603573858</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>86.25014187408861</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>185.5421801524407</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>94.13968570244978</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>207.085981278626</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>58.67748875058466</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>195.2245215091662</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>154.8833258811976</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>94.13968570244987</v>
+        <v>53.22168315497711</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>129.67879665852</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2727,10 +2727,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2781,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>95.12791126066239</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>177.8417091006719</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>106.3397188323749</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>407.0111099729188</v>
       </c>
       <c r="C32" t="n">
-        <v>167.2258230149176</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.8896947407055</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>58.31517967031871</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>267.284452661452</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -3322,10 +3322,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>208.0459955848474</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3432,7 +3432,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3441,10 +3441,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100371</v>
+        <v>106.1625082751652</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>55.75406509467693</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>104.7223743992564</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -3565,7 +3565,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>51.58543740429393</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716532</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>58.67748875058447</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>82.38632349887008</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3918,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>19.53872709080452</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>194.6908647867076</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4030,22 +4030,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>107.329043371148</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>104.7223743992564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4200,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>117.5628180826244</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,55 +4306,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>713.6680058048858</v>
+        <v>107.9353460459316</v>
       </c>
       <c r="C2" t="n">
-        <v>713.6680058048858</v>
+        <v>107.9353460459316</v>
       </c>
       <c r="D2" t="n">
-        <v>713.6680058048858</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E2" t="n">
-        <v>713.6680058048858</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F2" t="n">
-        <v>713.6680058048858</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G2" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
-        <v>475.9423301316919</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L2" t="n">
-        <v>475.9423301316919</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M2" t="n">
-        <v>475.9423301316919</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N2" t="n">
-        <v>475.9423301316919</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O2" t="n">
-        <v>932.7282368344227</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P2" t="n">
-        <v>1389.514143537153</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041336</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S2" t="n">
         <v>1741.232328914477</v>
@@ -4363,19 +4363,19 @@
         <v>1741.232328914477</v>
       </c>
       <c r="U2" t="n">
-        <v>1482.877419510889</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V2" t="n">
-        <v>1125.388004637138</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W2" t="n">
-        <v>1125.388004637138</v>
+        <v>1344.840979214824</v>
       </c>
       <c r="X2" t="n">
-        <v>713.6680058048858</v>
+        <v>933.1209803825714</v>
       </c>
       <c r="Y2" t="n">
-        <v>713.6680058048858</v>
+        <v>527.7837103374617</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922819</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C3" t="n">
-        <v>486.5295800097866</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G3" t="n">
         <v>90.28808569851708</v>
@@ -4406,40 +4406,40 @@
         <v>36.9119924608267</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J3" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K3" t="n">
-        <v>765.3953884431485</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L3" t="n">
-        <v>765.3953884431485</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M3" t="n">
-        <v>765.3953884431485</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N3" t="n">
+        <v>772.8420314050604</v>
+      </c>
+      <c r="O3" t="n">
         <v>850.0084995511718</v>
       </c>
-      <c r="O3" t="n">
-        <v>1306.794406253902</v>
-      </c>
       <c r="P3" t="n">
-        <v>1306.794406253902</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S3" t="n">
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4448,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590522</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123446</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349.778669745664</v>
+        <v>682.2545666527535</v>
       </c>
       <c r="C4" t="n">
-        <v>177.80610662458</v>
+        <v>510.2820035316695</v>
       </c>
       <c r="D4" t="n">
-        <v>177.80610662458</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="E4" t="n">
-        <v>36.91199246082673</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="F4" t="n">
-        <v>36.91199246082673</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G4" t="n">
-        <v>36.91199246082673</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K4" t="n">
-        <v>76.2056552989647</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933855</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636363</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439672</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119435</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041336</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041336</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041336</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T4" t="n">
-        <v>1845.599623041336</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U4" t="n">
-        <v>1565.415174541641</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V4" t="n">
-        <v>1283.70370714967</v>
+        <v>993.3257460627433</v>
       </c>
       <c r="W4" t="n">
-        <v>1008.851303322183</v>
+        <v>924.8184632069484</v>
       </c>
       <c r="X4" t="n">
-        <v>766.2874067679876</v>
+        <v>682.2545666527535</v>
       </c>
       <c r="Y4" t="n">
-        <v>539.9446384577296</v>
+        <v>682.2545666527535</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>887.1053432625264</v>
+        <v>412.6980298866362</v>
       </c>
       <c r="C5" t="n">
-        <v>460.2046132758265</v>
+        <v>412.6980298866362</v>
       </c>
       <c r="D5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L5" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M5" t="n">
-        <v>493.6978991635575</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N5" t="n">
-        <v>950.4838058662883</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O5" t="n">
-        <v>1407.269712569019</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P5" t="n">
-        <v>1845.599623041336</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041336</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041336</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041336</v>
+        <v>1229.755298763999</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041336</v>
+        <v>1229.755298763999</v>
       </c>
       <c r="X5" t="n">
-        <v>1433.879624209084</v>
+        <v>818.0352999317458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1306.953707554057</v>
+        <v>412.6980298866362</v>
       </c>
     </row>
     <row r="6">
@@ -4628,37 +4628,37 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F6" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J6" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K6" t="n">
-        <v>772.8420314050604</v>
+        <v>475.2419029331439</v>
       </c>
       <c r="L6" t="n">
-        <v>772.8420314050604</v>
+        <v>932.0278096358747</v>
       </c>
       <c r="M6" t="n">
-        <v>1229.627938107791</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N6" t="n">
-        <v>1229.627938107791</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O6" t="n">
         <v>1388.813716338606</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>595.3769080672175</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="C7" t="n">
-        <v>423.4043449461335</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D7" t="n">
-        <v>260.0875720729042</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E7" t="n">
-        <v>260.0875720729042</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F7" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>78.10605253212941</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>304.6336537379666</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>659.3229750323874</v>
       </c>
       <c r="M7" t="n">
-        <v>695.0806413228745</v>
+        <v>1050.508770002638</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.57215219891</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800574</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041336</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.464575560471</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T7" t="n">
-        <v>1432.125227786371</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.940779286676</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V7" t="n">
-        <v>870.2293118947046</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W7" t="n">
-        <v>595.3769080672175</v>
+        <v>548.3382947543912</v>
       </c>
       <c r="X7" t="n">
-        <v>595.3769080672175</v>
+        <v>305.7743982001963</v>
       </c>
       <c r="Y7" t="n">
-        <v>595.3769080672175</v>
+        <v>79.43162988993831</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>739.1194333973433</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="C8" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D8" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E8" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F8" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G8" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>399.5154512777223</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L8" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M8" t="n">
-        <v>1313.087264683184</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N8" t="n">
-        <v>1313.087264683184</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O8" t="n">
-        <v>1389.514143537153</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537153</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041336</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041336</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T8" t="n">
-        <v>1624.67405208597</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U8" t="n">
-        <v>1493.000197970747</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V8" t="n">
-        <v>1135.510783096996</v>
+        <v>1295.38108557131</v>
       </c>
       <c r="W8" t="n">
-        <v>739.1194333973433</v>
+        <v>1295.38108557131</v>
       </c>
       <c r="X8" t="n">
-        <v>739.1194333973433</v>
+        <v>883.6610867390567</v>
       </c>
       <c r="Y8" t="n">
-        <v>739.1194333973433</v>
+        <v>883.6610867390567</v>
       </c>
     </row>
     <row r="9">
@@ -4865,46 +4865,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F9" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K9" t="n">
-        <v>308.6094817404178</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L9" t="n">
-        <v>308.6094817404178</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M9" t="n">
-        <v>765.3953884431486</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N9" t="n">
-        <v>1222.181295145879</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1120.093114985063</v>
+        <v>308.6531238416347</v>
       </c>
       <c r="C10" t="n">
-        <v>948.1205518639796</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="D10" t="n">
-        <v>784.8037789907503</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="E10" t="n">
-        <v>618.5955731436038</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="F10" t="n">
-        <v>446.7337989181643</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H10" t="n">
         <v>136.6805607205508</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K10" t="n">
-        <v>76.2056552989647</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933855</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636363</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439672</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119435</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041336</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041336</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041336</v>
+        <v>1281.725732083416</v>
       </c>
       <c r="V10" t="n">
-        <v>1845.599623041336</v>
+        <v>1000.014264691445</v>
       </c>
       <c r="W10" t="n">
-        <v>1779.165748561582</v>
+        <v>725.1618608639584</v>
       </c>
       <c r="X10" t="n">
-        <v>1536.601852007387</v>
+        <v>725.1618608639584</v>
       </c>
       <c r="Y10" t="n">
-        <v>1310.259083697129</v>
+        <v>498.8190925537004</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>369.6772422433207</v>
+        <v>740.4003527616368</v>
       </c>
       <c r="C11" t="n">
-        <v>369.6772422433207</v>
+        <v>313.4996227749369</v>
       </c>
       <c r="D11" t="n">
-        <v>369.6772422433207</v>
+        <v>313.4996227749369</v>
       </c>
       <c r="E11" t="n">
-        <v>369.6772422433207</v>
+        <v>313.4996227749369</v>
       </c>
       <c r="F11" t="n">
-        <v>369.6772422433207</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G11" t="n">
-        <v>369.6772422433207</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H11" t="n">
-        <v>71.80886371735552</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J11" t="n">
-        <v>36.91199246082673</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>493.6978991635575</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L11" t="n">
-        <v>950.4838058662883</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M11" t="n">
-        <v>950.4838058662883</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N11" t="n">
-        <v>1407.269712569019</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O11" t="n">
-        <v>1845.599623041336</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P11" t="n">
-        <v>1845.599623041336</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q11" t="n">
-        <v>1845.599623041336</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R11" t="n">
-        <v>1845.599623041336</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S11" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T11" t="n">
-        <v>1520.30675795911</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U11" t="n">
-        <v>1261.951848555522</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V11" t="n">
-        <v>904.4624336817717</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W11" t="n">
-        <v>508.0710839821186</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="X11" t="n">
-        <v>369.6772422433207</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="Y11" t="n">
-        <v>369.6772422433207</v>
+        <v>740.4003527616368</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C12" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250717</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E12" t="n">
-        <v>277.9876877980089</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F12" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851714</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I12" t="n">
-        <v>36.91199246082673</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J12" t="n">
-        <v>36.91199246082673</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K12" t="n">
-        <v>493.6978991635575</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L12" t="n">
-        <v>493.6978991635575</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M12" t="n">
-        <v>493.6978991635575</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N12" t="n">
-        <v>950.4838058662883</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O12" t="n">
-        <v>1388.813716338606</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P12" t="n">
-        <v>1845.599623041337</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q12" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R12" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S12" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U12" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V12" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W12" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X12" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y12" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>346.9652306584402</v>
+        <v>485.750951392604</v>
       </c>
       <c r="C13" t="n">
-        <v>346.9652306584402</v>
+        <v>485.750951392604</v>
       </c>
       <c r="D13" t="n">
-        <v>346.9652306584402</v>
+        <v>454.2712676479637</v>
       </c>
       <c r="E13" t="n">
-        <v>346.9652306584402</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F13" t="n">
-        <v>346.9652306584402</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G13" t="n">
-        <v>180.7082609526723</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082673</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082673</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K13" t="n">
-        <v>76.2056552989647</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L13" t="n">
-        <v>430.8949765933855</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M13" t="n">
-        <v>822.0807715636363</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N13" t="n">
-        <v>1199.572282439672</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O13" t="n">
-        <v>1555.000411119435</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P13" t="n">
-        <v>1845.599623041336</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q13" t="n">
-        <v>1845.599623041336</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R13" t="n">
-        <v>1845.599623041336</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S13" t="n">
-        <v>1845.599623041336</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T13" t="n">
-        <v>1652.620215242047</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U13" t="n">
-        <v>1372.435766742351</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V13" t="n">
-        <v>1090.72429935038</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W13" t="n">
-        <v>815.8718955228931</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X13" t="n">
-        <v>573.3079989686981</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y13" t="n">
-        <v>346.9652306584402</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1321.383964622947</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="C14" t="n">
-        <v>1311.305734938569</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="D14" t="n">
-        <v>888.013114123569</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E14" t="n">
-        <v>462.0361742714265</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F14" t="n">
-        <v>36.91199246082673</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082673</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>36.91199246082673</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L14" t="n">
-        <v>493.6978991635575</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M14" t="n">
-        <v>950.4838058662883</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N14" t="n">
-        <v>1407.269712569019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O14" t="n">
-        <v>1728.043288159434</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P14" t="n">
-        <v>1728.043288159434</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q14" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R14" t="n">
-        <v>1845.599623041336</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S14" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T14" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U14" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V14" t="n">
-        <v>1741.232328914477</v>
+        <v>2116.995677999903</v>
       </c>
       <c r="W14" t="n">
-        <v>1741.232328914477</v>
+        <v>2116.995677999903</v>
       </c>
       <c r="X14" t="n">
-        <v>1741.232328914477</v>
+        <v>1705.275679167651</v>
       </c>
       <c r="Y14" t="n">
-        <v>1741.232328914477</v>
+        <v>1299.938409122541</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C15" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250717</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E15" t="n">
-        <v>277.9876877980089</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F15" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851714</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082673</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082673</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K15" t="n">
-        <v>493.6978991635575</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L15" t="n">
-        <v>932.0278096358752</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M15" t="n">
-        <v>932.0278096358752</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N15" t="n">
-        <v>932.0278096358752</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O15" t="n">
-        <v>932.0278096358752</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P15" t="n">
-        <v>1388.813716338606</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q15" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R15" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S15" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T15" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U15" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V15" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W15" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X15" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y15" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.093114985063</v>
+        <v>965.2704761209314</v>
       </c>
       <c r="C16" t="n">
-        <v>948.1205518639796</v>
+        <v>793.2979129998474</v>
       </c>
       <c r="D16" t="n">
-        <v>784.8037789907503</v>
+        <v>629.9811401266181</v>
       </c>
       <c r="E16" t="n">
-        <v>618.5955731436038</v>
+        <v>463.7729342794717</v>
       </c>
       <c r="F16" t="n">
-        <v>446.7337989181643</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G16" t="n">
-        <v>280.4768292123964</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082673</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K16" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L16" t="n">
-        <v>618.1289149610848</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M16" t="n">
-        <v>1009.314709931336</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N16" t="n">
-        <v>1386.806220807371</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O16" t="n">
-        <v>1742.234349487134</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P16" t="n">
-        <v>1845.599623041336</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q16" t="n">
-        <v>1845.599623041336</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R16" t="n">
-        <v>1845.599623041336</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S16" t="n">
-        <v>1845.599623041336</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T16" t="n">
-        <v>1845.599623041336</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U16" t="n">
-        <v>1845.599623041336</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="V16" t="n">
-        <v>1845.599623041336</v>
+        <v>1482.686776502613</v>
       </c>
       <c r="W16" t="n">
-        <v>1779.165748561582</v>
+        <v>1207.834372675126</v>
       </c>
       <c r="X16" t="n">
-        <v>1536.601852007387</v>
+        <v>965.2704761209314</v>
       </c>
       <c r="Y16" t="n">
-        <v>1310.259083697129</v>
+        <v>965.2704761209314</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1283.774063102811</v>
+        <v>1230.141144670584</v>
       </c>
       <c r="C17" t="n">
-        <v>1283.774063102811</v>
+        <v>803.240414683884</v>
       </c>
       <c r="D17" t="n">
-        <v>1283.774063102811</v>
+        <v>803.240414683884</v>
       </c>
       <c r="E17" t="n">
-        <v>1206.726719052893</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F17" t="n">
-        <v>781.6025372422928</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G17" t="n">
         <v>377.2634748317415</v>
       </c>
       <c r="H17" t="n">
-        <v>79.39509630577631</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L17" t="n">
-        <v>572.9146475090618</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M17" t="n">
-        <v>1123.5801824935</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N17" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O17" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S17" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T17" t="n">
-        <v>1899.618387380149</v>
+        <v>2061.709507794367</v>
       </c>
       <c r="U17" t="n">
-        <v>1641.263477976561</v>
+        <v>2061.709507794367</v>
       </c>
       <c r="V17" t="n">
-        <v>1283.774063102811</v>
+        <v>2061.709507794367</v>
       </c>
       <c r="W17" t="n">
-        <v>1283.774063102811</v>
+        <v>2061.709507794367</v>
       </c>
       <c r="X17" t="n">
-        <v>1283.774063102811</v>
+        <v>1649.989508962114</v>
       </c>
       <c r="Y17" t="n">
-        <v>1283.774063102811</v>
+        <v>1649.989508962114</v>
       </c>
     </row>
     <row r="18">
@@ -5576,43 +5576,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D18" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E18" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K18" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L18" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M18" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N18" t="n">
-        <v>1696.494830002561</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O18" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P18" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q18" t="n">
         <v>1853.185855629757</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1051.483930128627</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C19" t="n">
-        <v>879.5113670075434</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D19" t="n">
-        <v>792.3900115791711</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="E19" t="n">
-        <v>626.1818057320246</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="F19" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G19" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H19" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J19" t="n">
-        <v>101.9895532734052</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K19" t="n">
-        <v>328.5171544792424</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L19" t="n">
-        <v>683.2064757736632</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M19" t="n">
         <v>1074.392270743914</v>
@@ -5709,16 +5709,16 @@
         <v>1484.213795394888</v>
       </c>
       <c r="V19" t="n">
-        <v>1484.213795394888</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W19" t="n">
-        <v>1484.213795394888</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X19" t="n">
-        <v>1241.649898840693</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y19" t="n">
-        <v>1241.649898840693</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>892.9150276748471</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="C20" t="n">
-        <v>892.9150276748471</v>
+        <v>1115.2282425197</v>
       </c>
       <c r="D20" t="n">
-        <v>469.6224068598473</v>
+        <v>691.9356217047</v>
       </c>
       <c r="E20" t="n">
-        <v>469.6224068598473</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K20" t="n">
-        <v>44.49822504924752</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L20" t="n">
-        <v>44.49822504924752</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M20" t="n">
-        <v>44.49822504924752</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N20" t="n">
-        <v>595.1637600336854</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O20" t="n">
-        <v>1145.829295018124</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P20" t="n">
-        <v>1696.494830002561</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q20" t="n">
-        <v>2152.580309506744</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V20" t="n">
-        <v>2129.820660843739</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W20" t="n">
-        <v>2129.820660843739</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X20" t="n">
-        <v>1718.100662011487</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="Y20" t="n">
-        <v>1312.763391966377</v>
+        <v>1542.1289725064</v>
       </c>
     </row>
     <row r="21">
@@ -5813,43 +5813,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J21" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K21" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L21" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M21" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N21" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O21" t="n">
-        <v>866.8612493132766</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P21" t="n">
-        <v>1389.040378766978</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q21" t="n">
         <v>1853.185855629757</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1027.91077931376</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C22" t="n">
-        <v>855.9382161926764</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D22" t="n">
-        <v>692.6214433194471</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="E22" t="n">
-        <v>526.4132374723006</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="F22" t="n">
-        <v>354.551463246861</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G22" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J22" t="n">
         <v>101.9895532734055</v>
@@ -5937,25 +5937,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S22" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T22" t="n">
-        <v>2177.872639149549</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U22" t="n">
-        <v>2177.872639149549</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V22" t="n">
-        <v>1896.161171757578</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W22" t="n">
-        <v>1686.983412890279</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X22" t="n">
-        <v>1444.419516336084</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y22" t="n">
-        <v>1218.076748025826</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1805.062888170846</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C23" t="n">
-        <v>1378.162158184146</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D23" t="n">
-        <v>954.869537369146</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E23" t="n">
-        <v>528.8925975170035</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F23" t="n">
-        <v>103.7684157064037</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G23" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>572.9146475090618</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L23" t="n">
-        <v>1123.5801824935</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M23" t="n">
-        <v>1674.245717477938</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N23" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O23" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P23" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q23" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V23" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W23" t="n">
-        <v>2224.911252462376</v>
+        <v>1349.239422403769</v>
       </c>
       <c r="X23" t="n">
-        <v>2224.911252462376</v>
+        <v>1152.042936030874</v>
       </c>
       <c r="Y23" t="n">
-        <v>2224.911252462376</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>983.3471129133208</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C24" t="n">
-        <v>865.8412094308255</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>762.0012509461105</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E24" t="n">
-        <v>657.2993172190478</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>563.653486901952</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G24" t="n">
-        <v>469.599715119556</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H24" t="n">
-        <v>416.2236218818656</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I24" t="n">
-        <v>423.6702648437774</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J24" t="n">
-        <v>695.3677541233685</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K24" t="n">
-        <v>1123.5801824935</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L24" t="n">
-        <v>1123.5801824935</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M24" t="n">
-        <v>1674.245717477938</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N24" t="n">
-        <v>2224.911252462376</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O24" t="n">
-        <v>2224.911252462376</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P24" t="n">
-        <v>2224.911252462376</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q24" t="n">
-        <v>2224.911252462376</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R24" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S24" t="n">
-        <v>2143.58700502363</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T24" t="n">
-        <v>2001.707069321308</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U24" t="n">
-        <v>1816.938873240945</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V24" t="n">
-        <v>1611.965734380211</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W24" t="n">
-        <v>1415.444357213428</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X24" t="n">
-        <v>1251.967010980091</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y24" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1127.679347573484</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C25" t="n">
-        <v>955.7067844524004</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D25" t="n">
-        <v>792.3900115791711</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E25" t="n">
-        <v>626.1818057320246</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F25" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G25" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H25" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J25" t="n">
         <v>101.9895532734055</v>
@@ -6174,25 +6174,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T25" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U25" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V25" t="n">
-        <v>1943.199785070404</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W25" t="n">
-        <v>1786.751981150003</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X25" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y25" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>988.0056192934833</v>
+        <v>928.5735032260596</v>
       </c>
       <c r="C26" t="n">
-        <v>988.0056192934833</v>
+        <v>928.5735032260596</v>
       </c>
       <c r="D26" t="n">
-        <v>564.7129984784835</v>
+        <v>928.5735032260596</v>
       </c>
       <c r="E26" t="n">
-        <v>564.7129984784835</v>
+        <v>502.5965633739172</v>
       </c>
       <c r="F26" t="n">
-        <v>139.5888166678837</v>
+        <v>502.5965633739172</v>
       </c>
       <c r="G26" t="n">
-        <v>139.5888166678837</v>
+        <v>98.25750096336583</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J26" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L26" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M26" t="n">
-        <v>44.49822504924752</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N26" t="n">
-        <v>549.9383681074139</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O26" t="n">
-        <v>1100.603903091852</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P26" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V26" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W26" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="X26" t="n">
-        <v>1813.191253630123</v>
+        <v>1333.910773271169</v>
       </c>
       <c r="Y26" t="n">
-        <v>1407.853983585013</v>
+        <v>928.5735032260596</v>
       </c>
     </row>
     <row r="27">
@@ -6287,37 +6287,37 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F27" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J27" t="n">
         <v>323.6423572907505</v>
       </c>
       <c r="K27" t="n">
-        <v>323.6423572907505</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L27" t="n">
-        <v>323.6423572907505</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M27" t="n">
-        <v>751.8547856608814</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N27" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O27" t="n">
         <v>1853.185855629757</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1127.679347573484</v>
+        <v>785.2980199960962</v>
       </c>
       <c r="C28" t="n">
-        <v>955.7067844524004</v>
+        <v>613.3254568750122</v>
       </c>
       <c r="D28" t="n">
-        <v>792.3900115791711</v>
+        <v>482.3367733815576</v>
       </c>
       <c r="E28" t="n">
-        <v>626.1818057320246</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="F28" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G28" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H28" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6411,25 +6411,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T28" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U28" t="n">
-        <v>2224.911252462376</v>
+        <v>1774.591756481815</v>
       </c>
       <c r="V28" t="n">
-        <v>2061.60438497749</v>
+        <v>1492.880289089844</v>
       </c>
       <c r="W28" t="n">
-        <v>1786.751981150003</v>
+        <v>1218.027885262357</v>
       </c>
       <c r="X28" t="n">
-        <v>1544.188084595808</v>
+        <v>975.4639887081618</v>
       </c>
       <c r="Y28" t="n">
-        <v>1317.84531628555</v>
+        <v>975.4639887081618</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1393.342889338593</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="C29" t="n">
-        <v>1393.342889338593</v>
+        <v>961.2406272429716</v>
       </c>
       <c r="D29" t="n">
-        <v>970.0502685235931</v>
+        <v>961.2406272429716</v>
       </c>
       <c r="E29" t="n">
-        <v>873.9614692703988</v>
+        <v>961.2406272429716</v>
       </c>
       <c r="F29" t="n">
-        <v>448.8372874597989</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K29" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L29" t="n">
-        <v>595.1637600336854</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M29" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N29" t="n">
-        <v>1696.494830002561</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O29" t="n">
-        <v>2224.911252462376</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P29" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q29" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V29" t="n">
-        <v>2224.911252462376</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W29" t="n">
-        <v>2224.911252462376</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="X29" t="n">
-        <v>1813.191253630123</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="Y29" t="n">
-        <v>1813.191253630123</v>
+        <v>1388.141357229671</v>
       </c>
     </row>
     <row r="30">
@@ -6524,46 +6524,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J30" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K30" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L30" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M30" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N30" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O30" t="n">
-        <v>1696.494830002561</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P30" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q30" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R30" t="n">
         <v>1853.185855629757</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.5956631384639</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C31" t="n">
-        <v>733.5956631384639</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D31" t="n">
-        <v>733.5956631384639</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E31" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F31" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G31" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H31" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6645,28 +6645,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R31" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S31" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U31" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V31" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.502328002917</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X31" t="n">
-        <v>959.9384314487219</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.5956631384639</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2224.911252462376</v>
+        <v>1230.141144670584</v>
       </c>
       <c r="C32" t="n">
-        <v>2055.996279720035</v>
+        <v>803.240414683884</v>
       </c>
       <c r="D32" t="n">
-        <v>1632.703658905035</v>
+        <v>803.240414683884</v>
       </c>
       <c r="E32" t="n">
-        <v>1206.726719052893</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F32" t="n">
-        <v>781.6025372422929</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G32" t="n">
         <v>377.2634748317415</v>
@@ -6697,55 +6697,55 @@
         <v>79.39509630577632</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L32" t="n">
-        <v>44.49822504924752</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M32" t="n">
-        <v>44.49822504924752</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="N32" t="n">
-        <v>595.1637600336855</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O32" t="n">
-        <v>1100.603903091852</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P32" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V32" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W32" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X32" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="Y32" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
     </row>
     <row r="33">
@@ -6767,34 +6767,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J33" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K33" t="n">
-        <v>44.49822504924752</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L33" t="n">
-        <v>44.49822504924752</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M33" t="n">
-        <v>595.1637600336855</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N33" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O33" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P33" t="n">
         <v>1853.185855629757</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>626.1818057320245</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C34" t="n">
-        <v>626.1818057320245</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D34" t="n">
-        <v>626.1818057320245</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E34" t="n">
-        <v>626.1818057320245</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F34" t="n">
-        <v>454.3200315065849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G34" t="n">
-        <v>288.0630618008171</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H34" t="n">
-        <v>144.2667933089715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6867,7 +6867,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M34" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N34" t="n">
         <v>1451.88378161995</v>
@@ -6882,28 +6882,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R34" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U34" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V34" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W34" t="n">
-        <v>927.6499241754302</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X34" t="n">
-        <v>685.0860276212353</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y34" t="n">
-        <v>626.1818057320245</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>781.6025372422928</v>
+        <v>1202.257061762247</v>
       </c>
       <c r="C35" t="n">
-        <v>781.6025372422928</v>
+        <v>775.356331775547</v>
       </c>
       <c r="D35" t="n">
-        <v>781.6025372422928</v>
+        <v>775.356331775547</v>
       </c>
       <c r="E35" t="n">
-        <v>781.6025372422928</v>
+        <v>349.3793919234046</v>
       </c>
       <c r="F35" t="n">
-        <v>781.6025372422928</v>
+        <v>349.3793919234046</v>
       </c>
       <c r="G35" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H35" t="n">
-        <v>79.39509630577631</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L35" t="n">
-        <v>44.49822504924752</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M35" t="n">
-        <v>549.9383681074139</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N35" t="n">
-        <v>549.9383681074139</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O35" t="n">
-        <v>1100.603903091852</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P35" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q35" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T35" t="n">
-        <v>2003.985681507009</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U35" t="n">
-        <v>1745.630772103421</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V35" t="n">
-        <v>1388.141357229671</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W35" t="n">
-        <v>991.7500075300175</v>
+        <v>1607.594331807357</v>
       </c>
       <c r="X35" t="n">
-        <v>991.7500075300175</v>
+        <v>1607.594331807357</v>
       </c>
       <c r="Y35" t="n">
-        <v>781.6025372422928</v>
+        <v>1202.257061762247</v>
       </c>
     </row>
     <row r="36">
@@ -6998,46 +6998,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F36" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L36" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M36" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N36" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O36" t="n">
-        <v>1696.494830002561</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P36" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q36" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R36" t="n">
         <v>1853.185855629757</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1127.679347573484</v>
+        <v>717.9063049747683</v>
       </c>
       <c r="C37" t="n">
-        <v>955.7067844524004</v>
+        <v>545.9337418536843</v>
       </c>
       <c r="D37" t="n">
-        <v>792.3900115791711</v>
+        <v>382.616968980455</v>
       </c>
       <c r="E37" t="n">
-        <v>626.1818057320246</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F37" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G37" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H37" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
@@ -7119,28 +7119,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S37" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T37" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U37" t="n">
-        <v>2224.911252462376</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V37" t="n">
-        <v>2061.60438497749</v>
+        <v>1376.978938551287</v>
       </c>
       <c r="W37" t="n">
-        <v>1786.751981150003</v>
+        <v>1376.978938551287</v>
       </c>
       <c r="X37" t="n">
-        <v>1544.188084595808</v>
+        <v>1134.415041997092</v>
       </c>
       <c r="Y37" t="n">
-        <v>1317.84531628555</v>
+        <v>908.072273686834</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>887.3827134031578</v>
+        <v>1227.456825633441</v>
       </c>
       <c r="C38" t="n">
-        <v>887.3827134031578</v>
+        <v>800.5560956467413</v>
       </c>
       <c r="D38" t="n">
-        <v>887.3827134031578</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E38" t="n">
-        <v>887.3827134031578</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F38" t="n">
-        <v>781.6025372422928</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G38" t="n">
         <v>377.2634748317415</v>
       </c>
       <c r="H38" t="n">
-        <v>79.39509630577631</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J38" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L38" t="n">
-        <v>572.9146475090618</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M38" t="n">
-        <v>1123.5801824935</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N38" t="n">
-        <v>1674.245717477938</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O38" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P38" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q38" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T38" t="n">
-        <v>1899.618387380149</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U38" t="n">
-        <v>1641.263477976561</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V38" t="n">
-        <v>1283.774063102811</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W38" t="n">
-        <v>887.3827134031578</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X38" t="n">
-        <v>887.3827134031578</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="Y38" t="n">
-        <v>887.3827134031578</v>
+        <v>1283.774063102812</v>
       </c>
     </row>
     <row r="39">
@@ -7235,46 +7235,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E39" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K39" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L39" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M39" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N39" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O39" t="n">
-        <v>1696.494830002561</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P39" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q39" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R39" t="n">
         <v>1853.185855629757</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>268.5772905989112</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C40" t="n">
-        <v>96.60472747782725</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D40" t="n">
-        <v>44.49822504924752</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E40" t="n">
-        <v>44.49822504924752</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7359,25 +7359,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S40" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U40" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V40" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W40" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X40" t="n">
-        <v>685.0860276212348</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y40" t="n">
-        <v>458.7432593109769</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1745.792697513689</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="C41" t="n">
-        <v>1318.891967526989</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="D41" t="n">
-        <v>895.5993467119897</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E41" t="n">
-        <v>469.6224068598473</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F41" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G41" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L41" t="n">
-        <v>572.9146475090618</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M41" t="n">
-        <v>1123.5801824935</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N41" t="n">
-        <v>1674.245717477938</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O41" t="n">
-        <v>2224.911252462376</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U41" t="n">
-        <v>2165.64106180522</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V41" t="n">
-        <v>2165.64106180522</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W41" t="n">
-        <v>2165.64106180522</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X41" t="n">
-        <v>2165.64106180522</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="Y41" t="n">
-        <v>2165.64106180522</v>
+        <v>804.1642048184415</v>
       </c>
     </row>
     <row r="42">
@@ -7472,46 +7472,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D42" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E42" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J42" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K42" t="n">
-        <v>201.1892506764434</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L42" t="n">
-        <v>751.8547856608814</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N42" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O42" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P42" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q42" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R42" t="n">
         <v>1853.185855629757</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1047.64686728427</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="C43" t="n">
-        <v>875.674304163186</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D43" t="n">
-        <v>712.3575312899567</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E43" t="n">
-        <v>546.1493254428102</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F43" t="n">
-        <v>374.2875512173706</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G43" t="n">
-        <v>208.0305815116027</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H43" t="n">
-        <v>64.23431301975714</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7584,37 +7584,37 @@
         <v>1451.88378161995</v>
       </c>
       <c r="O43" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P43" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q43" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R43" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S43" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T43" t="n">
-        <v>1981.571904688275</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U43" t="n">
-        <v>1981.571904688275</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="V43" t="n">
-        <v>1981.571904688275</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="W43" t="n">
-        <v>1706.719500860788</v>
+        <v>1614.779418028919</v>
       </c>
       <c r="X43" t="n">
-        <v>1464.155604306594</v>
+        <v>1372.215521474724</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.812835996336</v>
+        <v>1145.872753164466</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>781.6025372422928</v>
+        <v>1333.927509518027</v>
       </c>
       <c r="C44" t="n">
-        <v>781.6025372422928</v>
+        <v>907.0267795313274</v>
       </c>
       <c r="D44" t="n">
-        <v>781.6025372422928</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="E44" t="n">
-        <v>781.6025372422928</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="F44" t="n">
-        <v>781.6025372422928</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G44" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H44" t="n">
-        <v>79.39509630577631</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>595.1637600336854</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L44" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M44" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N44" t="n">
-        <v>1696.494830002561</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O44" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P44" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T44" t="n">
-        <v>1899.618387380149</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U44" t="n">
-        <v>1641.263477976561</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V44" t="n">
-        <v>1283.774063102811</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W44" t="n">
-        <v>887.3827134031578</v>
+        <v>1753.775873809557</v>
       </c>
       <c r="X44" t="n">
-        <v>887.3827134031578</v>
+        <v>1753.775873809557</v>
       </c>
       <c r="Y44" t="n">
-        <v>781.6025372422928</v>
+        <v>1753.775873809557</v>
       </c>
     </row>
     <row r="45">
@@ -7709,46 +7709,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J45" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L45" t="n">
-        <v>838.37484378254</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M45" t="n">
-        <v>838.37484378254</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N45" t="n">
-        <v>1389.040378766978</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O45" t="n">
-        <v>1389.040378766978</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P45" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q45" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R45" t="n">
         <v>1853.185855629757</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>855.9382161926764</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C46" t="n">
-        <v>855.9382161926764</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D46" t="n">
-        <v>692.6214433194471</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E46" t="n">
-        <v>526.4132374723006</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F46" t="n">
-        <v>354.551463246861</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G46" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J46" t="n">
         <v>101.9895532734055</v>
@@ -7833,25 +7833,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>2054.776204981511</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T46" t="n">
-        <v>1811.43685720741</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U46" t="n">
-        <v>1531.252408707715</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V46" t="n">
-        <v>1249.540941315744</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W46" t="n">
-        <v>974.6885374882565</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X46" t="n">
-        <v>855.9382161926764</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y46" t="n">
-        <v>855.9382161926764</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>479.2295883411377</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7993,16 +7993,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705654</v>
+        <v>457.4303624918456</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936674</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8069,16 +8069,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>106.810817211545</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825563</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493126</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8136,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>60.65522297608369</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
@@ -8224,22 +8224,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>498.8311686597659</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947801</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163582</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P5" t="n">
-        <v>480.3328471358044</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,25 +8297,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936674</v>
+        <v>183.1929492179942</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726621</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>183.9656051068836</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493126</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>62.24691767208638</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8382,13 +8382,13 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>42.23240770727544</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
@@ -8455,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L8" t="n">
-        <v>499.711948192957</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.8311686597659</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>114.5898268852863</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>191.4874666845722</v>
+        <v>101.1178171425364</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493126</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608369</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L10" t="n">
-        <v>380.1908016072373</v>
+        <v>361.8093214193388</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>497.1645065551434</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>499.711948192957</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>498.6795285947801</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O11" t="n">
-        <v>480.1484446815972</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>483.7991395936674</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N12" t="n">
-        <v>482.7429339738758</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O12" t="n">
-        <v>465.9293750477955</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>60.65522297608369</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L14" t="n">
-        <v>499.711948192957</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>498.8311686597659</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>498.6795285947801</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>361.4046720736148</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>483.7991395936674</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L15" t="n">
-        <v>465.272572039803</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9020,16 +9020,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P15" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>484.1469440493126</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
@@ -9093,7 +9093,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>417.7126065281028</v>
+        <v>417.7126065281034</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
@@ -9102,10 +9102,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7901678844532</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L17" t="n">
-        <v>572.0660045132433</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L18" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>181.445652982016</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.7088046951723</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
@@ -9403,28 +9403,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N20" t="n">
-        <v>593.50743595004</v>
+        <v>571.0335849150666</v>
       </c>
       <c r="O20" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>108.094208435838</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9491,16 +9491,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O21" t="n">
-        <v>579.3997028378161</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P21" t="n">
-        <v>549.2245073196785</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>181.0208015487716</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>569.5185628754298</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M23" t="n">
-        <v>593.6590760150257</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N23" t="n">
-        <v>593.50743595004</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O23" t="n">
         <v>37.3909593560241</v>
@@ -9658,10 +9658,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,28 +9719,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>454.9370402678093</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N26" t="n">
-        <v>547.8252218830989</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>593.8031749258253</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9956,19 +9956,19 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M27" t="n">
-        <v>455.6345869468037</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291355</v>
+        <v>453.880834648017</v>
       </c>
       <c r="O27" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L29" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>593.6590760150257</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N29" t="n">
-        <v>593.50743595004</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O29" t="n">
-        <v>571.1449214366444</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>86.31943126580316</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>180.0446044646224</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N32" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>547.9365584046774</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10430,22 +10430,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M33" t="n">
-        <v>579.324593627922</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291356</v>
+        <v>179.6167914733347</v>
       </c>
       <c r="O33" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>180.0446044646222</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>301.3352940721928</v>
       </c>
       <c r="M35" t="n">
-        <v>547.9768619480847</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>180.0446044646224</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L38" t="n">
-        <v>572.0660045132433</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>593.6187724716181</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>180.0446044646224</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L41" t="n">
-        <v>572.0660045132433</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150257</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N41" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>205.0632038737858</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>180.6729970931272</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L42" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>381.5174992961649</v>
+        <v>381.5174992961657</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>593.50743595004</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O44" t="n">
-        <v>571.1449214366444</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L45" t="n">
-        <v>268.1828480767089</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>348.7465745575959</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -22561,10 +22561,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>25.19691331653297</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22603,19 +22603,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>25.06095076655924</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22752,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22767,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>204.2816697619752</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>47.03151755529842</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -22840,10 +22840,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>275.6272398561817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,22 +22941,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>146.1698679701245</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>113.7937326759387</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -23035,10 +23035,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>125.4142447354814</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>131.2381050610902</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -23184,19 +23184,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23229,22 +23229,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>128.4871032687729</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>206.3343440542552</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -23269,16 +23269,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>154.5615562440613</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>270.5928955225203</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>130.5187182373031</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>49.85634057506246</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>412.6542752992987</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -23554,16 +23554,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>247.0781020071646</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.01390016090062</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>206.3343440542552</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>345.4402998442018</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>160.4702092100746</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>75.43346327040838</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>118.5577190788913</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>236.1749903011803</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>259.7748350225633</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>118.5577190788913</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>65.01789851058615</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>341.6181830358612</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>34.5479025439635</v>
@@ -24259,22 +24259,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>212.378277334764</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>117.2205539080145</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>200.7500090382557</v>
+        <v>241.6680115857284</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -24496,10 +24496,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>32.00480848597698</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>326.5892591929586</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>243.0312308918218</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>58.20640495630006</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>8.638770675695923</v>
       </c>
       <c r="C32" t="n">
-        <v>255.4058996719153</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>165.7641609568367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,22 +25156,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>133.0112191249939</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,10 +25210,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>193.2379017598111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080143</v>
+        <v>172.7318444428862</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>359.8958155539378</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>316.1505655932374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>118.5577190788912</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>197.0938715589674</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>325.2164753450601</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>79.23215548632227</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>77.41301500250455</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>285.0983928315085</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.5615229454022</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>122.5754395060285</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>436278.5742239319</v>
+        <v>491599.4626948612</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>436278.5742239319</v>
+        <v>491599.4626948612</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>491599.4626948609</v>
+        <v>491599.462694861</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>491599.4626948609</v>
+        <v>491599.462694861</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>491599.462694861</v>
+        <v>491599.4626948612</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>491599.4626948609</v>
+        <v>491599.462694861</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>491599.462694861</v>
+        <v>491599.4626948612</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>491599.462694861</v>
+        <v>491599.4626948609</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>491599.462694861</v>
+        <v>491599.4626948612</v>
       </c>
     </row>
   </sheetData>
@@ -26319,13 +26319,13 @@
         <v>105244.5587950953</v>
       </c>
       <c r="D2" t="n">
-        <v>105244.5587950953</v>
+        <v>105244.5587950954</v>
       </c>
       <c r="E2" t="n">
-        <v>105244.5587950953</v>
+        <v>118588.5340553546</v>
       </c>
       <c r="F2" t="n">
-        <v>105244.5587950953</v>
+        <v>118588.5340553546</v>
       </c>
       <c r="G2" t="n">
         <v>118588.5340553546</v>
@@ -26343,7 +26343,7 @@
         <v>118588.5340553546</v>
       </c>
       <c r="L2" t="n">
-        <v>118588.5340553547</v>
+        <v>118588.5340553546</v>
       </c>
       <c r="M2" t="n">
         <v>118588.5340553546</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181204</v>
+        <v>154625.7206181205</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>28313.5269223188</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25990.90698746639</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23631.4938245602</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>22820.43073295063</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15700.4426709214</v>
+        <v>15700.44267092141</v>
       </c>
       <c r="C4" t="n">
-        <v>15700.4426709214</v>
+        <v>15700.44267092141</v>
       </c>
       <c r="D4" t="n">
-        <v>15700.4426709214</v>
+        <v>15700.44267092141</v>
       </c>
       <c r="E4" t="n">
-        <v>15700.4426709214</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="F4" t="n">
-        <v>15700.44267092141</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="G4" t="n">
         <v>17703.77972371005</v>
@@ -26438,13 +26438,13 @@
         <v>17703.77972371005</v>
       </c>
       <c r="I4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="J4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="K4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="L4" t="n">
         <v>17703.77972371005</v>
@@ -26453,13 +26453,13 @@
         <v>17703.77972371005</v>
       </c>
       <c r="N4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="O4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="P4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022831</v>
+        <v>61680.71427022832</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022831</v>
+        <v>61680.71427022832</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022831</v>
+        <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022831</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022831</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126762.3187641748</v>
+        <v>-127466.6785856664</v>
       </c>
       <c r="C6" t="n">
-        <v>27863.40185394559</v>
+        <v>27159.04203245412</v>
       </c>
       <c r="D6" t="n">
-        <v>27863.40185394562</v>
+        <v>27159.04203245413</v>
       </c>
       <c r="E6" t="n">
-        <v>61491.00185394562</v>
+        <v>38143.53065940797</v>
       </c>
       <c r="F6" t="n">
-        <v>61491.00185394561</v>
+        <v>66457.0575817268</v>
       </c>
       <c r="G6" t="n">
-        <v>41075.19630675008</v>
+        <v>66457.05758172678</v>
       </c>
       <c r="H6" t="n">
-        <v>67066.10329421646</v>
+        <v>66457.05758172678</v>
       </c>
       <c r="I6" t="n">
-        <v>67066.10329421649</v>
+        <v>66457.05758172677</v>
       </c>
       <c r="J6" t="n">
-        <v>-53656.41364854039</v>
+        <v>-54265.45936103012</v>
       </c>
       <c r="K6" t="n">
-        <v>67066.10329421646</v>
+        <v>66457.05758172675</v>
       </c>
       <c r="L6" t="n">
-        <v>67066.1032942165</v>
+        <v>66457.05758172675</v>
       </c>
       <c r="M6" t="n">
-        <v>67066.10329421649</v>
+        <v>42825.56375716659</v>
       </c>
       <c r="N6" t="n">
-        <v>67066.10329421646</v>
+        <v>66457.05758172677</v>
       </c>
       <c r="O6" t="n">
-        <v>44245.6725612658</v>
+        <v>66457.0575817268</v>
       </c>
       <c r="P6" t="n">
-        <v>67066.10329421647</v>
+        <v>66457.05758172678</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603341</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603341</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="I4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>94.82790735525981</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603343</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>94.82790735525981</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>94.82790735525981</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>443.4649875463284</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>85.46778899800334</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603341</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>39.69056852337169</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34944,22 +34944,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P5" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603341</v>
+        <v>160.7937153846608</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>160.7937153846614</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>41.61016168818452</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35102,13 +35102,13 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>19.65696781578962</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
@@ -35175,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>77.1988675292622</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>168.31557696235</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>39.69056852337169</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>358.2720417115361</v>
+        <v>339.8905615236376</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>461.3999057603341</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O11" t="n">
-        <v>442.7574853255731</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="N12" t="n">
-        <v>461.3999057603341</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O12" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>39.69056852337169</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
@@ -35588,7 +35588,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L14" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>324.0137127175907</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>461.3999057603341</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L15" t="n">
-        <v>442.7574853255734</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>461.3999057603341</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
         <v>228.8157587937749</v>
@@ -35813,7 +35813,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366176</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35822,10 +35822,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>104.4093672264667</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L17" t="n">
-        <v>533.7539620806205</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.07204871127044</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
         <v>228.8157587937749</v>
@@ -36123,28 +36123,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N20" t="n">
-        <v>556.2278131155939</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="O20" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.06155854104156</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O21" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P21" t="n">
-        <v>527.4536661148499</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>533.7539620806205</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M23" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N23" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36378,10 +36378,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>432.537806434476</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N26" t="n">
-        <v>510.5455990486529</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36676,19 +36676,19 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M27" t="n">
-        <v>432.5378064344757</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>556.2278131155939</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="O27" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L29" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N29" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O29" t="n">
-        <v>533.7539620806203</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>158.2737632597938</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="N32" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M33" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N33" t="n">
-        <v>556.227813115594</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="O33" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>158.2737632597935</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="M35" t="n">
-        <v>510.5455990486529</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>158.2737632597938</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L38" t="n">
-        <v>533.7539620806205</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>158.2737632597938</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L41" t="n">
-        <v>533.7539620806205</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M41" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N41" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>158.2737632597938</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L42" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37952,7 +37952,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O43" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977413</v>
       </c>
       <c r="P43" t="n">
         <v>293.5345574968697</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O44" t="n">
-        <v>533.7539620806203</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L45" t="n">
-        <v>245.6677613624794</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
